--- a/wyniki_BAT/bat_ drop_wave.bat .xlsx
+++ b/wyniki_BAT/bat_ drop_wave.bat .xlsx
@@ -535,25 +535,25 @@
         <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8904909189139899</v>
+        <v>-1.0484185008034037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5401222229338439</v>
+        <v>-2.3915843027039796</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7857513256682612</v>
+        <v>-0.3691276994234323</v>
       </c>
       <c r="G2" t="n">
-        <v>0.045902494452907464</v>
+        <v>0.39799985963477125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I2" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K2" t="s">
         <v>102</v>
@@ -565,25 +565,25 @@
         <v>40.0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5201743652815914</v>
+        <v>0.44342164680651064</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0065829756732445005</v>
+        <v>0.2720296928720054</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.936245327800779</v>
+        <v>-0.9362453277536044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0040646582272301284</v>
+        <v>0.004064658233245331</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S2" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U2" t="s">
         <v>102</v>
@@ -595,25 +595,25 @@
         <v>70.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4772958965582696</v>
+        <v>-0.5182570184184395</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.20691356639642192</v>
+        <v>0.045117404294112144</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.9362453278036732</v>
+        <v>-0.9362453277185127</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004064658226861086</v>
+        <v>0.004064658237719851</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.0</v>
+        <v>23.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AE2" t="s">
         <v>102</v>
@@ -625,25 +625,25 @@
         <v>100.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.16792372616734358</v>
+        <v>-0.40869740551400846</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4923695692156157</v>
+        <v>-0.3218532765551193</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.9362453276897027</v>
+        <v>-0.9362453277681685</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.004064658241393389</v>
+        <v>0.0040646582313882676</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM2" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO2" t="s">
         <v>102</v>
@@ -655,25 +655,25 @@
         <v>200.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.3411895657042008</v>
+        <v>-0.44511365251104373</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.3927004363181362</v>
+        <v>0.2692543167850897</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.9362453278055681</v>
+        <v>-0.936245327806961</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.004064658226619464</v>
+        <v>0.004064658226441859</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW2" t="n">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY2" t="s">
         <v>102</v>
@@ -690,25 +690,25 @@
         <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6990139937116362</v>
+        <v>0.8342198931037434</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7720867701867552</v>
+        <v>-0.6235616480208944</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.785751334514366</v>
+        <v>-0.7857513341425716</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04590249066237512</v>
+        <v>0.04590249082168801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I3" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K3" t="s">
         <v>102</v>
@@ -720,25 +720,25 @@
         <v>40.0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6796659659230156</v>
+        <v>0.27544744881468247</v>
       </c>
       <c r="O3" t="n">
-        <v>0.789172397932395</v>
+        <v>-0.4413078703098199</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7857513345348706</v>
+        <v>-0.9362453278052295</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04590249065358895</v>
+        <v>0.004064658226662641</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S3" t="n">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="U3" t="s">
         <v>102</v>
@@ -750,25 +750,25 @@
         <v>70.0</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.5078970734906085</v>
+        <v>0.5192177317497189</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.11253739825662977</v>
+        <v>-0.03219353706205621</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.9362453278074565</v>
+        <v>-0.9362453277902784</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0040646582263786785</v>
+        <v>0.004064658228569053</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.0</v>
+        <v>21.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="AE3" t="s">
         <v>102</v>
@@ -780,25 +780,25 @@
         <v>100.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.22788197346536698</v>
+        <v>-0.5105122778167679</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.4676474582161496</v>
+        <v>-0.10001140436874921</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.9362453278075535</v>
+        <v>-0.936245327785885</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0040646582263663055</v>
+        <v>0.004064658229129249</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM3" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO3" t="s">
         <v>102</v>
@@ -810,25 +810,25 @@
         <v>200.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.3377937741748197</v>
+        <v>-0.06169875007280241</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.39562717656618723</v>
+        <v>-0.5165438036937243</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.9362453277574947</v>
+        <v>-0.9362453278079391</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.004064658232749277</v>
+        <v>0.004064658226317141</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW3" t="n">
-        <v>28.0</v>
+        <v>56.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="AY3" t="s">
         <v>102</v>
@@ -845,25 +845,25 @@
         <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1817732552527155</v>
+        <v>-1.3152985184820025</v>
       </c>
       <c r="E4" t="n">
-        <v>0.487424830292327</v>
+        <v>0.8463300060084348</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9362453278059235</v>
+        <v>-0.6194994367737922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00406465822657415</v>
+        <v>0.1447806786154614</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I4" t="n">
-        <v>42.0</v>
+        <v>86.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K4" t="s">
         <v>102</v>
@@ -875,25 +875,25 @@
         <v>40.0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8921012760748674</v>
+        <v>-0.46265687814518913</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5374918835261344</v>
+        <v>0.2378540100163761</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.7857513346467762</v>
+        <v>-0.9362453277185482</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0459024906056377</v>
+        <v>0.004064658237715321</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S4" t="n">
-        <v>53.0</v>
+        <v>30.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="s">
         <v>102</v>
@@ -905,25 +905,25 @@
         <v>70.0</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.48037436853716287</v>
+        <v>-0.15338755857354888</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1996565010472233</v>
+        <v>-1.0301529159002043</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.9362453276857091</v>
+        <v>-0.7857513346515016</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004064658241902609</v>
+        <v>0.04590249060361286</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC4" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE4" t="s">
         <v>102</v>
@@ -935,25 +935,25 @@
         <v>100.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5197897101171745</v>
+        <v>0.5171903658358535</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.021035577924493582</v>
+        <v>-0.055997013672811694</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.9362453278031915</v>
+        <v>-0.9362453275816608</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.00406465822692251</v>
+        <v>0.004064658255169743</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM4" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.02999999999999403</v>
       </c>
       <c r="AO4" t="s">
         <v>102</v>
@@ -965,25 +965,25 @@
         <v>200.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.46849805240167613</v>
+        <v>0.4041539757640005</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2261270301593438</v>
+        <v>-0.3275418424085101</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.9362453278036803</v>
+        <v>-0.9362453278073872</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.00406465822686018</v>
+        <v>0.0040646582263875125</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW4" t="n">
-        <v>75.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.28999999999999204</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="AY4" t="s">
         <v>102</v>
@@ -1000,25 +1000,25 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.964986874076458</v>
+        <v>0.19460381474994787</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3918690926103022</v>
+        <v>0.482451257272322</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7857513325503528</v>
+        <v>-0.9362453268140788</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04590249150394952</v>
+        <v>0.004064658353043621</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0</v>
+        <v>50.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K5" t="s">
         <v>102</v>
@@ -1030,25 +1030,25 @@
         <v>40.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.5200274983120253</v>
+        <v>0.4897482404929759</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.013935198792981583</v>
+        <v>-0.919177416342403</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.9362453277430808</v>
+        <v>-0.7857513346055714</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004064658234587185</v>
+        <v>0.0459024906232938</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S5" t="n">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U5" t="s">
         <v>102</v>
@@ -1060,25 +1060,25 @@
         <v>70.0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.322193719646293</v>
+        <v>-0.28394401398778946</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.4084305661105506</v>
+        <v>-0.43589068917510265</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.936245327807673</v>
+        <v>-0.936245327793951</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004064658226351074</v>
+        <v>0.00406465822810076</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC5" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AE5" t="s">
         <v>102</v>
@@ -1090,22 +1090,22 @@
         <v>100.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5045841345790523</v>
+        <v>0.3932418171056699</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.12656401529877362</v>
+        <v>-0.34056606635951875</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.9362453277955535</v>
+        <v>-0.9362453278072869</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004064658227896427</v>
+        <v>0.00406465822640031</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM5" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.030000000000001137</v>
@@ -1120,25 +1120,25 @@
         <v>200.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.21729255134232767</v>
+        <v>0.5013498919533318</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.4726604918057106</v>
+        <v>0.1388258580328734</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.9362453278062219</v>
+        <v>-0.9362453278075942</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.004064658226536098</v>
+        <v>0.004064658226361125</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW5" t="n">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AY5" t="s">
         <v>102</v>
@@ -1155,25 +1155,25 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5137256857464212</v>
+        <v>-0.27745140283123104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08187048002370623</v>
+        <v>0.4400496013802605</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9362453261054696</v>
+        <v>-0.9362453277554004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0040646584433979135</v>
+        <v>0.004064658233016323</v>
       </c>
       <c r="H6" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I6" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K6" t="s">
         <v>102</v>
@@ -1185,25 +1185,25 @@
         <v>40.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2599660852166258</v>
+        <v>-0.40767184931003214</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4506007565468426</v>
+        <v>-0.323143177538827</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.936245327786856</v>
+        <v>-0.9362453265337105</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0040646582290054375</v>
+        <v>0.004064658388793197</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S6" t="n">
-        <v>80.0</v>
+        <v>22.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U6" t="s">
         <v>102</v>
@@ -1215,25 +1215,25 @@
         <v>70.0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3424825895937071</v>
+        <v>0.04153103210482513</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.39157298865345236</v>
+        <v>0.5185551842153058</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.9362453278001703</v>
+        <v>-0.936245327807751</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.004064658227307734</v>
+        <v>0.004064658226341122</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC6" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AE6" t="s">
         <v>102</v>
@@ -1245,25 +1245,25 @@
         <v>100.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3558322291845007</v>
+        <v>0.35156774102482063</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.3794825829367455</v>
+        <v>0.38343483802407113</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.9362453277958371</v>
+        <v>-0.9362453276729136</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.004064658227860257</v>
+        <v>0.0040646582435341595</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM6" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO6" t="s">
         <v>102</v>
@@ -1275,25 +1275,25 @@
         <v>200.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.5152025368465436</v>
+        <v>-0.49590587703476174</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.0720411139103717</v>
+        <v>-0.15716660584762024</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.9362453277946401</v>
+        <v>-0.9362453278060333</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.004064658228012891</v>
+        <v>0.00406465822656015</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW6" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="AY6" t="s">
         <v>102</v>
@@ -1310,25 +1310,25 @@
         <v>20.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9958538274272599</v>
+        <v>-0.048845337536778596</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3050054655095526</v>
+        <v>0.5179154905077691</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7857513339917743</v>
+        <v>-0.9362453276942126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.045902490886304236</v>
+        <v>0.0040646582408183285</v>
       </c>
       <c r="H7" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I7" t="n">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K7" t="s">
         <v>102</v>
@@ -1340,25 +1340,25 @@
         <v>40.0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3365570747760685</v>
+        <v>-1.0366992478410395</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.396677485770377</v>
+        <v>-0.1000040731380005</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.9362453277989622</v>
+        <v>-0.785751334593033</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004064658227461783</v>
+        <v>0.045902490628666484</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S7" t="n">
-        <v>58.0</v>
+        <v>42.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U7" t="s">
         <v>102</v>
@@ -1370,25 +1370,25 @@
         <v>70.0</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.15074769480887024</v>
+        <v>0.518659091970394</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.49789510556491584</v>
+        <v>0.04019821022141432</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.9362453278069718</v>
+        <v>-0.9362453277715446</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.004064658226440485</v>
+        <v>0.004064658230957786</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC7" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE7" t="s">
         <v>102</v>
@@ -1400,25 +1400,25 @@
         <v>100.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.29601144983714767</v>
+        <v>0.38101880178924696</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.4277856850356246</v>
+        <v>-0.35418761942908544</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.9362453277849377</v>
+        <v>-0.9362453278079123</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.004064658229250032</v>
+        <v>0.004064658226320567</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM7" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AO7" t="s">
         <v>102</v>
@@ -1430,25 +1430,25 @@
         <v>200.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.11109792624066023</v>
+        <v>1.22045605602265E-5</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.5082142368332904</v>
+        <v>-7.603380869369356E-6</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.936245327806255</v>
+        <v>-0.9999999925048522</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.004064658226531879</v>
+        <v>5.617724107918047E-17</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW7" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY7" t="s">
         <v>102</v>
@@ -1465,25 +1465,25 @@
         <v>20.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.5711421511364037</v>
+        <v>-1.001592586764615</v>
       </c>
       <c r="E8" t="n">
-        <v>1.3744333897688668</v>
+        <v>-0.2855593850387427</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.47778442451541103</v>
+        <v>-0.7857513338218333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.27270910727870046</v>
+        <v>0.04590249095912353</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I8" t="n">
-        <v>23.0</v>
+        <v>36.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="K8" t="s">
         <v>102</v>
@@ -1495,25 +1495,25 @@
         <v>40.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5197536610571898</v>
+        <v>0.378346236768882</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.022012325685581847</v>
+        <v>-0.35703440894083993</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9362453272598295</v>
+        <v>-0.9362453270910955</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004064658296206246</v>
+        <v>0.004064658317721397</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S8" t="n">
-        <v>53.0</v>
+        <v>28.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U8" t="s">
         <v>102</v>
@@ -1525,22 +1525,22 @@
         <v>70.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2264943677086333</v>
+        <v>0.4090962516832355</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4683230226124353</v>
+        <v>0.32134615358063107</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.9362453276919301</v>
+        <v>-0.9362453277676485</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00406465824110937</v>
+        <v>0.0040646582314545765</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC8" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="AD8" t="n">
         <v>0.030000000000001137</v>
@@ -1555,25 +1555,25 @@
         <v>100.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.273401366383595</v>
+        <v>0.4991706378750747</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.4425797791322954</v>
+        <v>-0.1464694962123651</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.9362453277802419</v>
+        <v>-0.9362453278026412</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.00406465822984879</v>
+        <v>0.004064658226992669</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM8" t="n">
-        <v>34.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO8" t="s">
         <v>102</v>
@@ -1585,25 +1585,25 @@
         <v>200.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.48538683954264705</v>
+        <v>0.21754955284158492</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.18714661471634592</v>
+        <v>0.472542230030303</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.9362453278079373</v>
+        <v>-0.9362453278058145</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004064658226317367</v>
+        <v>0.004064658226588052</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW8" t="n">
-        <v>44.0</v>
+        <v>58.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.17000000000001592</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AY8" t="s">
         <v>102</v>
@@ -1620,25 +1620,25 @@
         <v>20.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.080241707363588</v>
+        <v>-0.6155372846290258</v>
       </c>
       <c r="E9" t="n">
-        <v>1.1310875493735044</v>
+        <v>0.8401470013602717</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6194994367477766</v>
+        <v>-0.7857513339973212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.14478067863525923</v>
+        <v>0.04590249088392741</v>
       </c>
       <c r="H9" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I9" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K9" t="s">
         <v>102</v>
@@ -1650,25 +1650,25 @@
         <v>40.0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.36920346522309216</v>
+        <v>-0.7088793311792377</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.36648792276953285</v>
+        <v>1.3941807972621398</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.9362453278036861</v>
+        <v>-0.6194994340435446</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004064658226859443</v>
+        <v>0.1447806806931829</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S9" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U9" t="s">
         <v>102</v>
@@ -1680,25 +1680,25 @@
         <v>70.0</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.10792486639646671</v>
+        <v>-0.38225342943804613</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.508897506312774</v>
+        <v>-0.352855662556083</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.9362453278064112</v>
+        <v>-0.9362453277975765</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004064658226511961</v>
+        <v>0.004064658227638469</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC9" t="n">
-        <v>70.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE9" t="s">
         <v>102</v>
@@ -1710,25 +1710,25 @@
         <v>100.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.34646368607430306</v>
+        <v>0.5196652349535672</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.38805531358042944</v>
+        <v>-0.023916756110112923</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.9362453278064865</v>
+        <v>-0.9362453278058233</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0040646582265023625</v>
+        <v>0.004064658226586933</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO9" t="s">
         <v>102</v>
@@ -1740,25 +1740,25 @@
         <v>200.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.18137001472816805</v>
+        <v>-0.5125785751721926</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.4875746242851005</v>
+        <v>0.08881125093171725</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.9362453278074023</v>
+        <v>-0.9362453278079405</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.004064658226385587</v>
+        <v>0.004064658226316971</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW9" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="AY9" t="s">
         <v>102</v>
@@ -1775,25 +1775,25 @@
         <v>20.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.5577635780707904</v>
+        <v>-0.2986498883197443</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.14032785903843775</v>
+        <v>-0.425948350280126</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6194994340210952</v>
+        <v>-0.9362453278008799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1447806807102669</v>
+        <v>0.00406465822721726</v>
       </c>
       <c r="H10" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I10" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K10" t="s">
         <v>102</v>
@@ -1805,25 +1805,25 @@
         <v>40.0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.13967396377901067</v>
+        <v>-0.5049554902500505</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.5011132955022652</v>
+        <v>0.9109162465495689</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9362453277838696</v>
+        <v>-0.7857513344670268</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00406465822938623</v>
+        <v>0.04590249068265981</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S10" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="s">
         <v>102</v>
@@ -1835,25 +1835,25 @@
         <v>70.0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5059513892336206</v>
+        <v>-0.518031845687964</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.12098101609615992</v>
+        <v>0.047617679606361867</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.9362453277757852</v>
+        <v>-0.9362453278065751</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00406465823041707</v>
+        <v>0.004064658226491066</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC10" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AE10" t="s">
         <v>102</v>
@@ -1865,25 +1865,25 @@
         <v>100.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.043751673737299324</v>
+        <v>-0.5186511671480739</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.5183724224089208</v>
+        <v>-0.040318386162202485</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.936245327807862</v>
+        <v>-0.9362453278034715</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.004064658226326979</v>
+        <v>0.004064658226886808</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM10" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO10" t="s">
         <v>102</v>
@@ -1895,25 +1895,25 @@
         <v>200.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.19908412599636405</v>
+        <v>-3.186807224843012E-5</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.48061372434453997</v>
+        <v>-9.6965164114948E-6</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.9362453278068528</v>
+        <v>-0.9999999597771287</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.004064658226455661</v>
+        <v>1.6178793720715167E-15</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW10" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="AY10" t="s">
         <v>102</v>
@@ -1930,25 +1930,25 @@
         <v>20.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7172242784024144</v>
+        <v>-0.8278793274055096</v>
       </c>
       <c r="E11" t="n">
-        <v>1.3899164604458343</v>
+        <v>1.326988892016815</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6194994366878379</v>
+        <v>-0.6194994367721036</v>
       </c>
       <c r="G11" t="n">
-        <v>0.14478067868087266</v>
+        <v>0.14478067861674637</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I11" t="n">
-        <v>57.0</v>
+        <v>39.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="s">
         <v>102</v>
@@ -1960,25 +1960,25 @@
         <v>40.0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.237338260658749</v>
+        <v>0.8407705425390276</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.4629185433948522</v>
+        <v>-0.6146933774802641</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.9362453277628395</v>
+        <v>-0.7857513346523146</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00406465823206776</v>
+        <v>0.045902490603264484</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S11" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U11" t="s">
         <v>102</v>
@@ -1990,25 +1990,25 @@
         <v>70.0</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.030038921325522265</v>
+        <v>1.0168971653887944</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.5193471581084527</v>
+        <v>0.22508536665950515</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.9362453278024088</v>
+        <v>-0.7857513346522436</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.004064658227022313</v>
+        <v>0.04590249060329493</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC11" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE11" t="s">
         <v>102</v>
@@ -2020,25 +2020,25 @@
         <v>100.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-3.484036326853802E-5</v>
+        <v>1.2401064666771485E-5</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.4777443096461266E-6</v>
+        <v>1.0874771166148406E-5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.9999999557753584</v>
+        <v>-0.9999999901382943</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.9558189260162813E-15</v>
+        <v>9.725323880645519E-17</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM11" t="n">
-        <v>64.0</v>
+        <v>51.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO11" t="s">
         <v>102</v>
@@ -2050,25 +2050,25 @@
         <v>200.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.12197044427352395</v>
+        <v>-0.5109964788001422</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5057148602532952</v>
+        <v>-0.09750206974796322</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.9362453278077337</v>
+        <v>-0.936245327807007</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.00406465822634333</v>
+        <v>0.004064658226435998</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW11" t="n">
-        <v>41.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="AY11" t="s">
         <v>102</v>
@@ -2085,25 +2085,25 @@
         <v>20.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.13679671944775734</v>
+        <v>-1.0412358179320245</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.0324892435219777</v>
+        <v>-0.02411817039918282</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7857513345343498</v>
+        <v>-0.785751333919519</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04590249065381211</v>
+        <v>0.04590249091726544</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.0</v>
+        <v>28.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="K12" t="s">
         <v>102</v>
@@ -2115,22 +2115,22 @@
         <v>40.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8527616751315296</v>
+        <v>0.1328219259723614</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.597967612614819</v>
+        <v>-0.5029725519437392</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.7857513306885177</v>
+        <v>-0.9362453277646432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04590249230174091</v>
+        <v>0.004064658231837775</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S12" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -2145,25 +2145,25 @@
         <v>70.0</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.17560557805586055</v>
+        <v>0.4270005975395852</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.48967975017250864</v>
+        <v>0.2971467473273509</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.936245327794669</v>
+        <v>-0.9362453277400606</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00406465822800921</v>
+        <v>0.004064658234972282</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC12" t="n">
-        <v>28.0</v>
+        <v>50.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE12" t="s">
         <v>102</v>
@@ -2175,25 +2175,25 @@
         <v>100.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.48136876121211003</v>
+        <v>-0.08719336764396049</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.19724792059904817</v>
+        <v>-0.5128562733028211</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.9362453277276225</v>
+        <v>-0.9362453278079367</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.004064658236558263</v>
+        <v>0.004064658226317452</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AO12" t="s">
         <v>102</v>
@@ -2205,25 +2205,25 @@
         <v>200.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.5173556013145599</v>
+        <v>0.48390216489033583</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.05448567683767452</v>
+        <v>0.19095454856929164</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.9362453277566578</v>
+        <v>-0.9362453277918324</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.004064658232855988</v>
+        <v>0.004064658228370892</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW12" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.14999999999999858</v>
       </c>
       <c r="AY12" t="s">
         <v>102</v>
@@ -2240,25 +2240,25 @@
         <v>20.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06748312178907394</v>
+        <v>-0.4967807091360407</v>
       </c>
       <c r="E13" t="n">
-        <v>1.039322197428127</v>
+        <v>-0.15437185612151771</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7857513346382713</v>
+        <v>-0.9362453276145335</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04590249060928201</v>
+        <v>0.004064658250978165</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I13" t="n">
-        <v>46.0</v>
+        <v>71.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K13" t="s">
         <v>102</v>
@@ -2270,25 +2270,25 @@
         <v>40.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.49732081599380223</v>
+        <v>0.1263009464737492</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1526324245981232</v>
+        <v>0.5046468563338238</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.9362453278023268</v>
+        <v>-0.9362453273438502</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00406465822703276</v>
+        <v>0.00406465828549281</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S13" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U13" t="s">
         <v>102</v>
@@ -2300,25 +2300,25 @@
         <v>70.0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.779877764128048E-5</v>
+        <v>-0.32120662229412533</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0636440274521476E-5</v>
+        <v>0.4092057338889918</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.9999999844150249</v>
+        <v>-0.936245327762769</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.428914485012266E-16</v>
+        <v>0.004064658232076749</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC13" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE13" t="s">
         <v>102</v>
@@ -2330,25 +2330,25 @@
         <v>100.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.4918663761644579</v>
+        <v>0.381587257035575</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.1693900796318149</v>
+        <v>0.353576564317821</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.9362453277547249</v>
+        <v>-0.9362453277769985</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.00406465823310245</v>
+        <v>0.004064658230262354</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM13" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO13" t="s">
         <v>102</v>
@@ -2360,25 +2360,25 @@
         <v>200.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.46556532800892275</v>
+        <v>-0.44118510784274695</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.23210503267375127</v>
+        <v>-0.27564469055193846</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.9362453278027563</v>
+        <v>-0.9362453278078005</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.004064658226978003</v>
+        <v>0.004064658226334822</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW13" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY13" t="s">
         <v>102</v>
@@ -2395,22 +2395,22 @@
         <v>20.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1329942576304883</v>
+        <v>1.5019802101504245</v>
       </c>
       <c r="E14" t="n">
-        <v>1.078239716911049</v>
+        <v>0.43626922397320067</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6194994366386266</v>
+        <v>-0.6194994365812797</v>
       </c>
       <c r="G14" t="n">
-        <v>0.14478067871832254</v>
+        <v>0.14478067876196357</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I14" t="n">
-        <v>30.0</v>
+        <v>84.0</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -2425,25 +2425,25 @@
         <v>40.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.520217181392492</v>
+        <v>0.01281646692608319</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.001357359135308663</v>
+        <v>0.5200567932005218</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.936245327417475</v>
+        <v>-0.9362453277826962</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004064658276104963</v>
+        <v>0.004064658229535849</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S14" t="n">
         <v>40.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.02999999999999403</v>
       </c>
       <c r="U14" t="s">
         <v>102</v>
@@ -2455,22 +2455,22 @@
         <v>70.0</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.3912053556488778</v>
+        <v>-0.41233748531480163</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3429019623379053</v>
+        <v>0.9564068427016227</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.9362453277857521</v>
+        <v>-0.7857513343420465</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004064658229146195</v>
+        <v>0.04590249073621356</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC14" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="AD14" t="n">
         <v>0.030000000000001137</v>
@@ -2485,25 +2485,25 @@
         <v>100.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.5188901237577583</v>
+        <v>0.04586810878911942</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.03710301572374302</v>
+        <v>0.5181866786749313</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.9362453277953743</v>
+        <v>-0.9362453275426087</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.004064658227919275</v>
+        <v>0.004064658260149249</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM14" t="n">
-        <v>43.0</v>
+        <v>34.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO14" t="s">
         <v>102</v>
@@ -2515,25 +2515,25 @@
         <v>200.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.5177326960321433</v>
+        <v>-0.5019874771045103</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.05076666918929807</v>
+        <v>-0.13650236965648171</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.9362453278070199</v>
+        <v>-0.9362453278076506</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.004064658226434355</v>
+        <v>0.0040646582263539335</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW14" t="n">
-        <v>61.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.28000000000000114</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="AY14" t="s">
         <v>102</v>
@@ -2550,25 +2550,25 @@
         <v>20.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8522802617615315</v>
+        <v>0.39351425082354585</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5986364818313161</v>
+        <v>-0.34024067991286333</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7857513345397604</v>
+        <v>-0.9362453262545548</v>
       </c>
       <c r="G15" t="n">
-        <v>0.045902490651493655</v>
+        <v>0.004064658424388158</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I15" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K15" t="s">
         <v>102</v>
@@ -2580,25 +2580,25 @@
         <v>40.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8940294923772502</v>
+        <v>0.8054585816510577</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.5342848477982458</v>
+        <v>-0.660288012860611</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.7857513344246897</v>
+        <v>-0.7857513346495772</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04590249070080116</v>
+        <v>0.04590249060443744</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S15" t="n">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="s">
         <v>102</v>
@@ -2610,25 +2610,25 @@
         <v>70.0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5190816288789413</v>
+        <v>-0.3851443412731126</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03431792814943358</v>
+        <v>-0.3496950677890911</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.9362453277893654</v>
+        <v>-0.9362453277444513</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004064658228685461</v>
+        <v>0.004064658234412425</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC15" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE15" t="s">
         <v>102</v>
@@ -2640,25 +2640,25 @@
         <v>100.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.27070146922843374</v>
+        <v>0.44218909376906834</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.4442333125891449</v>
+        <v>0.27403303694649084</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.9362453277167441</v>
+        <v>-0.9362453277719229</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.004064658237945362</v>
+        <v>0.004064658230909541</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM15" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO15" t="s">
         <v>102</v>
@@ -2670,25 +2670,25 @@
         <v>200.0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.4910859744204912</v>
+        <v>-0.5077986469026458</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.17163598621408194</v>
+        <v>-0.11297580694748016</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.9362453278075029</v>
+        <v>-0.9362453277606302</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.004064658226372761</v>
+        <v>0.004064658232349472</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW15" t="n">
-        <v>43.0</v>
+        <v>26.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.11000000000001364</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY15" t="s">
         <v>102</v>
@@ -2705,25 +2705,25 @@
         <v>20.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2951107422885116</v>
+        <v>0.051324870760869855</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9988301080259752</v>
+        <v>0.5176755015357183</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7857513341453433</v>
+        <v>-0.9362453276749493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04590249082050036</v>
+        <v>0.0040646582432745885</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I16" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K16" t="s">
         <v>102</v>
@@ -2735,25 +2735,25 @@
         <v>40.0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.28839973074065006</v>
+        <v>0.49962476281400875</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4329543741457915</v>
+        <v>0.14491359953784036</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.9362453278044699</v>
+        <v>-0.9362453277956164</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0040646582267595</v>
+        <v>0.0040646582278884</v>
       </c>
       <c r="R16" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S16" t="n">
-        <v>85.0</v>
+        <v>40.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U16" t="s">
         <v>102</v>
@@ -2765,25 +2765,25 @@
         <v>70.0</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.46851126232695206</v>
+        <v>0.5017195004310481</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.2261000305591836</v>
+        <v>-0.13749276346391082</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.9362453278066768</v>
+        <v>-0.9362453276138089</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.004064658226478099</v>
+        <v>0.004064658251070564</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC16" t="n">
-        <v>69.0</v>
+        <v>50.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AE16" t="s">
         <v>102</v>
@@ -2795,25 +2795,25 @@
         <v>100.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.338671961402774</v>
+        <v>-0.704916073641203</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.39487373218583816</v>
+        <v>0.7667057328647713</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.936245327805727</v>
+        <v>-0.7857513346426656</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.004064658226599207</v>
+        <v>0.04590249060739908</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM16" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AO16" t="s">
         <v>102</v>
@@ -2825,25 +2825,25 @@
         <v>200.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.1302387722541433</v>
+        <v>0.38780783633538435</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5036491519556923</v>
+        <v>0.34673815193445984</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.9362453278034569</v>
+        <v>-0.936245327687137</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004064658226888662</v>
+        <v>0.004064658241720543</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW16" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.11000000000000654</v>
       </c>
       <c r="AY16" t="s">
         <v>102</v>
@@ -2860,22 +2860,22 @@
         <v>20.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7550752218528985</v>
+        <v>-0.29203090231024065</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3697187894979581</v>
+        <v>0.43052143238261487</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6194994361581669</v>
+        <v>-0.9362453264746683</v>
       </c>
       <c r="G17" t="n">
-        <v>0.14478067908395287</v>
+        <v>0.004064658396321631</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I17" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
@@ -2890,25 +2890,25 @@
         <v>40.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03978114796682745</v>
+        <v>0.12111265306166585</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.5186922018792518</v>
+        <v>0.5059149909539824</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.9362453278077009</v>
+        <v>-0.9362453266896162</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00406465822634752</v>
+        <v>0.004064658368913759</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S17" t="n">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U17" t="s">
         <v>102</v>
@@ -2920,25 +2920,25 @@
         <v>70.0</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.08652317079651092</v>
+        <v>-0.4582185469787095</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.5129702260902987</v>
+        <v>-0.2462898374074175</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.9362453278005959</v>
+        <v>-0.9362453277544383</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.004064658227253472</v>
+        <v>0.004064658233139002</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC17" t="n">
-        <v>59.0</v>
+        <v>38.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE17" t="s">
         <v>102</v>
@@ -2950,25 +2950,25 @@
         <v>100.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.46873658794310974</v>
+        <v>0.3939345642068374</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.22563638253299464</v>
+        <v>-0.33976428943948483</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.9362453277338129</v>
+        <v>-0.936245327807935</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.004064658235768932</v>
+        <v>0.004064658226317665</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM17" t="n">
         <v>34.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO17" t="s">
         <v>102</v>
@@ -2980,25 +2980,25 @@
         <v>200.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.5081545396202125</v>
+        <v>0.3775900382132195</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.11137047710445264</v>
+        <v>-0.35784083964085917</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.9362453278067915</v>
+        <v>-0.9362453278077617</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.004064658226463475</v>
+        <v>0.0040646582263397625</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW17" t="n">
-        <v>40.0</v>
+        <v>51.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AY17" t="s">
         <v>102</v>
@@ -3015,25 +3015,25 @@
         <v>20.0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4976485661968687</v>
+        <v>-1.3491953038205822</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.15156297595754548</v>
+        <v>0.7911920719579709</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9362453277625745</v>
+        <v>-0.6194994349440738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004064658232101551</v>
+        <v>0.14478068000787914</v>
       </c>
       <c r="H18" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K18" t="s">
         <v>102</v>
@@ -3045,25 +3045,25 @@
         <v>40.0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9233641953258561</v>
+        <v>-0.5145710608443019</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.4818098931214082</v>
+        <v>-0.07641486769989748</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.7857513346467603</v>
+        <v>-0.936245327725828</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.045902490605644504</v>
+        <v>0.004064658236787073</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S18" t="n">
-        <v>48.0</v>
+        <v>27.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.0</v>
       </c>
       <c r="U18" t="s">
         <v>102</v>
@@ -3075,25 +3075,25 @@
         <v>70.0</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.323686754055639</v>
+        <v>1.0366917033351073</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.407252712723496</v>
+        <v>0.10006087224170618</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.9362453273885271</v>
+        <v>-0.7857513346418138</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.004064658279796098</v>
+        <v>0.04590249060776406</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC18" t="n">
-        <v>35.0</v>
+        <v>58.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AE18" t="s">
         <v>102</v>
@@ -3105,25 +3105,25 @@
         <v>100.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.36191207458534386</v>
+        <v>-0.518642782879693</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.9766079492756395</v>
+        <v>0.04042616176597988</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.7857513346517636</v>
+        <v>-0.9362453278033441</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.04590249060350059</v>
+        <v>0.0040646582269030455</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM18" t="n">
         <v>47.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AO18" t="s">
         <v>102</v>
@@ -3135,25 +3135,25 @@
         <v>200.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0.49573970609584056</v>
+        <v>0.07699295700914781</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0.15768962634989117</v>
+        <v>0.5144859915441211</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.936245327804033</v>
+        <v>-0.9362453278008209</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.004064658226815205</v>
+        <v>0.004064658227224777</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW18" t="n">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AY18" t="s">
         <v>102</v>
@@ -3170,25 +3170,25 @@
         <v>20.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04124329295855518</v>
+        <v>-0.9521054431275893</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.5635170458614878</v>
+        <v>-1.240876274468279</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.619499436764717</v>
+        <v>-0.6194994366952628</v>
       </c>
       <c r="G19" t="n">
-        <v>0.14478067862236763</v>
+        <v>0.14478067867522235</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I19" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="K19" t="s">
         <v>102</v>
@@ -3200,25 +3200,25 @@
         <v>40.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3313317843454765</v>
+        <v>0.4790879866231532</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9874010685877713</v>
+        <v>0.20272169007025648</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.7857513346373622</v>
+        <v>-0.9362453275543624</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04590249060967154</v>
+        <v>0.004064658258650542</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S19" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U19" t="s">
         <v>102</v>
@@ -3230,25 +3230,25 @@
         <v>70.0</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.5062578179653094</v>
+        <v>-0.191446719121428</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.11969486944932456</v>
+        <v>-0.4837065622622701</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.9362453278032337</v>
+        <v>-0.9362453278042551</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0040646582269171306</v>
+        <v>0.004064658226786892</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC19" t="n">
-        <v>62.0</v>
+        <v>45.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE19" t="s">
         <v>102</v>
@@ -3260,25 +3260,25 @@
         <v>100.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.2667687270459668</v>
+        <v>8.049457957338837E-6</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.4466081151236849</v>
+        <v>4.360280703271168E-5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.9362453278073749</v>
+        <v>-0.999999928732554</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.004064658226389083</v>
+        <v>5.079048851474474E-15</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM19" t="n">
-        <v>33.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO19" t="s">
         <v>102</v>
@@ -3290,25 +3290,25 @@
         <v>200.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.20608081330551115</v>
+        <v>-0.488735915655458</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.4776562525212305</v>
+        <v>-0.17821827410226715</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.9362453277977821</v>
+        <v>-0.9362453278047183</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.004064658227612252</v>
+        <v>0.0040646582267278315</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW19" t="n">
-        <v>22.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.14999999999999858</v>
       </c>
       <c r="AY19" t="s">
         <v>102</v>
@@ -3325,25 +3325,25 @@
         <v>20.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.472663673797509</v>
+        <v>0.28333575959835916</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9280614161965659</v>
+        <v>0.4362892029978607</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7857513269968133</v>
+        <v>-0.9362453274884432</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04590249388362643</v>
+        <v>0.00406465826705585</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I20" t="n">
-        <v>43.0</v>
+        <v>66.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K20" t="s">
         <v>102</v>
@@ -3355,25 +3355,25 @@
         <v>40.0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.445595789008395E-7</v>
+        <v>-0.41234868339287745</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.8112877406682227E-5</v>
+        <v>0.3171667762861798</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.9999999881000688</v>
+        <v>-0.9362453276860012</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4160836141239564E-16</v>
+        <v>0.004064658241865363</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S20" t="n">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U20" t="s">
         <v>102</v>
@@ -3385,25 +3385,25 @@
         <v>70.0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3990890970485638</v>
+        <v>0.006951424726971252</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.3336943964521499</v>
+        <v>0.5201694988552673</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.9362453278070354</v>
+        <v>-0.9362453278028755</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.004064658226432373</v>
+        <v>0.004064658226962799</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC20" t="n">
-        <v>54.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE20" t="s">
         <v>102</v>
@@ -3415,25 +3415,25 @@
         <v>100.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.48070011256177453</v>
+        <v>0.10917077665808751</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.19887709152919014</v>
+        <v>-0.5086374431701709</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.9362453278010789</v>
+        <v>-0.9362453266501874</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.004064658227191878</v>
+        <v>0.004064658373941299</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM20" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.10999999999998522</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO20" t="s">
         <v>102</v>
@@ -3445,25 +3445,25 @@
         <v>200.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0871813426089122</v>
+        <v>-0.4021598851113209</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5128581119273927</v>
+        <v>-0.32998829771269833</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.9362453278067108</v>
+        <v>-0.9362453277958173</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.004064658226473767</v>
+        <v>0.004064658227862791</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW20" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.0899999999999963</v>
       </c>
       <c r="AY20" t="s">
         <v>102</v>
@@ -3480,25 +3480,25 @@
         <v>20.0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05542214839077108</v>
+        <v>-0.2516403829117597</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.040038424077593</v>
+        <v>-2.599139415566985</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7857513341900386</v>
+        <v>-0.3691276994400848</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04590249080134851</v>
+        <v>0.39799985961376005</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I21" t="n">
-        <v>74.0</v>
+        <v>38.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K21" t="s">
         <v>102</v>
@@ -3510,25 +3510,25 @@
         <v>40.0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.287546085736971E-6</v>
+        <v>0.5188964486759966</v>
       </c>
       <c r="O21" t="n">
-        <v>-3.36570682734379E-5</v>
+        <v>-0.037011603956483924</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.9999999585442757</v>
+        <v>-0.9362453277856049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7185770770561976E-15</v>
+        <v>0.004064658229164966</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S21" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -3540,25 +3540,25 @@
         <v>70.0</v>
       </c>
       <c r="X21" t="n">
-        <v>-9.367543023801035E-6</v>
+        <v>-0.19866304407522742</v>
       </c>
       <c r="Y21" t="n">
-        <v>-2.7967120415009342E-5</v>
+        <v>-0.4807884400555234</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.999999968465738</v>
+        <v>-0.9362453278050945</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.94409678587821E-16</v>
+        <v>0.004064658226679856</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC21" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE21" t="s">
         <v>102</v>
@@ -3570,25 +3570,25 @@
         <v>100.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>-6.5307315181218E-6</v>
+        <v>-0.09090565779766487</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.33140767511396E-6</v>
+        <v>-0.5122120873115025</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.9999999982568855</v>
+        <v>-0.9362453277861886</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.0384483051266546E-18</v>
+        <v>0.004064658229090532</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM21" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.18000000000000682</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO21" t="s">
         <v>102</v>
@@ -3600,25 +3600,25 @@
         <v>200.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.4962804963248052</v>
+        <v>0.48064940674841733</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.15597726003131795</v>
+        <v>-0.1989976288635225</v>
       </c>
       <c r="AT21" t="n">
-        <v>-0.9362453277771762</v>
+        <v>-0.93624532780475</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.004064658230239704</v>
+        <v>0.004064658226723783</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW21" t="n">
-        <v>32.0</v>
+        <v>50.0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.10999999999998522</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY21" t="s">
         <v>102</v>
@@ -3635,25 +3635,25 @@
         <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7673191296775757</v>
+        <v>-0.7485297609585639</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7042616967659806</v>
+        <v>-0.72420322008469</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7857513320205256</v>
+        <v>-0.7857513308899319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04590249173097906</v>
+        <v>0.04590249221543546</v>
       </c>
       <c r="H22" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I22" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K22" t="s">
         <v>102</v>
@@ -3665,25 +3665,25 @@
         <v>40.0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.46986748147146273</v>
+        <v>0.026490125141079172</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2232582511557932</v>
+        <v>0.5195397734479493</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.9362453271648622</v>
+        <v>-0.9362453277811517</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.004064658308315458</v>
+        <v>0.004064658229732792</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S22" t="n">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -3695,25 +3695,25 @@
         <v>70.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4751443848722384</v>
+        <v>0.5091699466011037</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.21180649803335136</v>
+        <v>0.10662857142284583</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.9362453278078676</v>
+        <v>-0.9362453277987757</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.004064658226326258</v>
+        <v>0.004064658227485566</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC22" t="n">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE22" t="s">
         <v>102</v>
@@ -3725,25 +3725,25 @@
         <v>100.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.3736438665391872</v>
+        <v>7.219998366737114E-6</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.3619581289447903</v>
+        <v>-3.12304704111692E-5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.9362453277878137</v>
+        <v>-0.9999999627541891</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.004064658228883324</v>
+        <v>1.3872504281040956E-15</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM22" t="n">
-        <v>37.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AO22" t="s">
         <v>102</v>
@@ -3755,25 +3755,25 @@
         <v>200.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>-5.676407045897423E-6</v>
+        <v>-0.15246266322084404</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5165482512288067E-5</v>
+        <v>-0.49737266170321986</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.9999999758747877</v>
+        <v>-0.9362453278066812</v>
       </c>
       <c r="AU22" t="n">
-        <v>5.820258671860587E-16</v>
+        <v>0.0040646582264775325</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW22" t="n">
         <v>21.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="AY22" t="s">
         <v>102</v>
@@ -3790,25 +3790,25 @@
         <v>20.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2852927140791934</v>
+        <v>-0.21470682682791387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.43501230947937486</v>
+        <v>0.4738409820379029</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.9362453274427405</v>
+        <v>-0.9362453278077878</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004064658272883381</v>
+        <v>0.004064658226336436</v>
       </c>
       <c r="H23" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I23" t="n">
-        <v>44.0</v>
+        <v>69.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K23" t="s">
         <v>102</v>
@@ -3820,25 +3820,25 @@
         <v>40.0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.16333633639837208</v>
+        <v>-0.29757629220706117</v>
       </c>
       <c r="O23" t="n">
-        <v>0.49390811276638347</v>
+        <v>0.9980938236546564</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.9362453278060605</v>
+        <v>-0.7857513346520845</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.004064658226556681</v>
+        <v>0.0459024906033631</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S23" t="n">
-        <v>36.0</v>
+        <v>77.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U23" t="s">
         <v>102</v>
@@ -3850,25 +3850,25 @@
         <v>70.0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3064072049613884</v>
+        <v>-0.1520536431241292</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4204022660493685</v>
+        <v>0.49749771190408687</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.9362453277885323</v>
+        <v>-0.9362453278078433</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.00406465822879169</v>
+        <v>0.004064658226329358</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC23" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE23" t="s">
         <v>102</v>
@@ -3880,25 +3880,25 @@
         <v>100.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.4833669185067603</v>
+        <v>0.48697076686362883</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.1923023999524962</v>
+        <v>-0.18298681722730906</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.9362453278019659</v>
+        <v>-0.936245327800863</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.0040646582270787825</v>
+        <v>0.004064658227219412</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO23" t="s">
         <v>102</v>
@@ -3910,25 +3910,25 @@
         <v>200.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>-0.46022802200751595</v>
+        <v>-0.5201914098490161</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.24251727699645131</v>
+        <v>0.00497552509994728</v>
       </c>
       <c r="AT23" t="n">
-        <v>-0.9362453278062236</v>
+        <v>-0.9362453278036772</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.004064658226535885</v>
+        <v>0.004064658226860576</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW23" t="n">
-        <v>24.0</v>
+        <v>45.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="AY23" t="s">
         <v>102</v>
@@ -3945,25 +3945,25 @@
         <v>20.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3545606859918247</v>
+        <v>-1.036675602477462</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.979299798380446</v>
+        <v>-0.10023605151899256</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7857513346320816</v>
+        <v>-0.7857513346511146</v>
       </c>
       <c r="G24" t="n">
-        <v>0.045902490611934285</v>
+        <v>0.0459024906037787</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I24" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="K24" t="s">
         <v>102</v>
@@ -3975,25 +3975,25 @@
         <v>40.0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4459934105647739</v>
+        <v>0.20039377723723434</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2678152382714902</v>
+        <v>-0.480066745906079</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.9362453240886335</v>
+        <v>-0.9362453276150854</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004064658700563379</v>
+        <v>0.004064658250907794</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S24" t="n">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U24" t="s">
         <v>102</v>
@@ -4005,25 +4005,25 @@
         <v>70.0</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.503244833080784</v>
+        <v>-0.03761495442718939</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.13178834733038566</v>
+        <v>0.5188536267847619</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.9362453277927155</v>
+        <v>-0.9362453278058747</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.004064658228258292</v>
+        <v>0.004064658226580379</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC24" t="n">
-        <v>47.0</v>
+        <v>23.0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE24" t="s">
         <v>102</v>
@@ -4035,25 +4035,25 @@
         <v>100.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.4119535495046698</v>
+        <v>-0.4434289119876566</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.3176767889883535</v>
+        <v>-0.2720215919537105</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.9362453278078876</v>
+        <v>-0.9362453277917574</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.004064658226323709</v>
+        <v>0.004064658228380462</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM24" t="n">
-        <v>80.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.10999999999998522</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO24" t="s">
         <v>102</v>
@@ -4065,25 +4065,25 @@
         <v>200.0</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0.5201916275896585</v>
+        <v>-0.2946753226546743</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.0049506711714122015</v>
+        <v>0.42870798527769866</v>
       </c>
       <c r="AT24" t="n">
-        <v>-0.9362453278031982</v>
+        <v>-0.9362453278072805</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.004064658226921647</v>
+        <v>0.004064658226401116</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW24" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY24" t="s">
         <v>102</v>
@@ -4100,25 +4100,25 @@
         <v>20.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.464761304640355</v>
+        <v>-0.5641568795075075</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5484149068386879</v>
+        <v>-0.8754822156148311</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6194994367738164</v>
+        <v>-0.7857513346452709</v>
       </c>
       <c r="G25" t="n">
-        <v>0.14478067861544297</v>
+        <v>0.04590249060628269</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I25" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K25" t="s">
         <v>102</v>
@@ -4130,22 +4130,22 @@
         <v>40.0</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.7127069326085247</v>
+        <v>0.4346816443603022</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7594749630477833</v>
+        <v>0.28579092667831596</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.7857513339636372</v>
+        <v>-0.9362453278039262</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.04590249089836093</v>
+        <v>0.004064658226828824</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S25" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.030000000000001137</v>
@@ -4160,22 +4160,22 @@
         <v>70.0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.0099266020657374</v>
+        <v>-0.4322316685060782</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2545409905112189</v>
+        <v>0.2894828359169121</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.7857513346518538</v>
+        <v>-0.936245327805125</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04590249060346196</v>
+        <v>0.004064658226675962</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC25" t="n">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="AD25" t="n">
         <v>0.030000000000001137</v>
@@ -4190,25 +4190,25 @@
         <v>100.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.5201634060598269</v>
+        <v>-0.5192263207228257</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.007378138750875997</v>
+        <v>0.03206416326334389</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.9362453278069465</v>
+        <v>-0.9362453278072831</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.004064658226443713</v>
+        <v>0.004064658226400791</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM25" t="n">
-        <v>53.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO25" t="s">
         <v>102</v>
@@ -4220,25 +4220,25 @@
         <v>200.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>-0.5197983061527532</v>
+        <v>-0.5050106363369441</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.020838116138739867</v>
+        <v>0.12485318888658063</v>
       </c>
       <c r="AT25" t="n">
-        <v>-0.9362453278055124</v>
+        <v>-0.9362453278070774</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.004064658226626571</v>
+        <v>0.004064658226427023</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW25" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.21999999999999886</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY25" t="s">
         <v>102</v>
@@ -4255,25 +4255,25 @@
         <v>20.0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5196766536256038</v>
+        <v>0.8237592107803249</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0217398282243475</v>
+        <v>0.6373057367726823</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4777844282246243</v>
+        <v>-0.7857513344687557</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2727091034046826</v>
+        <v>0.045902490681919005</v>
       </c>
       <c r="H26" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I26" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K26" t="s">
         <v>102</v>
@@ -4285,25 +4285,25 @@
         <v>40.0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04507334166671335</v>
+        <v>-0.48329701915238643</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.0405401036694328</v>
+        <v>-0.19248392053240942</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.7857513336812937</v>
+        <v>-0.9362453277018054</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04590249101934436</v>
+        <v>0.004064658239850188</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S26" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U26" t="s">
         <v>102</v>
@@ -4315,25 +4315,25 @@
         <v>70.0</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.19245884184779685</v>
+        <v>-0.32491958810841165</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.4833046014955868</v>
+        <v>0.9895297712845137</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.9362453278006014</v>
+        <v>-0.7857513346424854</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.004064658227252764</v>
+        <v>0.04590249060747629</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC26" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE26" t="s">
         <v>102</v>
@@ -4345,25 +4345,25 @@
         <v>100.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.431965336813835</v>
+        <v>-1.3804801299794921E-5</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.9477073269461761</v>
+        <v>-7.941103369805883E-6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-0.7857513346522993</v>
+        <v>-0.9999999908057798</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.04590249060327105</v>
+        <v>8.453368440551526E-17</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM26" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AO26" t="s">
         <v>102</v>
@@ -4375,25 +4375,25 @@
         <v>200.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>-4.925711972745765E-5</v>
+        <v>-0.08177644469590278</v>
       </c>
       <c r="AS26" t="n">
-        <v>-5.25408621012902E-5</v>
+        <v>-0.5137474275655142</v>
       </c>
       <c r="AT26" t="n">
-        <v>-0.9999998119782931</v>
+        <v>-0.9362453278023773</v>
       </c>
       <c r="AU26" t="n">
-        <v>3.5352162254533933E-14</v>
+        <v>0.004064658227026319</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW26" t="n">
-        <v>21.0</v>
+        <v>49.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.14999999999999858</v>
       </c>
       <c r="AY26" t="s">
         <v>102</v>
@@ -4410,22 +4410,22 @@
         <v>20.0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5971065042987012</v>
+        <v>-0.8013149394278442</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8533544027724719</v>
+        <v>1.3432001666085989</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.7857513343514575</v>
+        <v>-0.6194994366364396</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04590249073218096</v>
+        <v>0.14478067871998684</v>
       </c>
       <c r="H27" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I27" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -4440,25 +4440,25 @@
         <v>40.0</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.6730164905902057</v>
+        <v>-1.2340587274459967</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.7948531808807213</v>
+        <v>-0.9609279164013507</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.7857513346515135</v>
+        <v>-0.6194994367707265</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04590249060360777</v>
+        <v>0.14478067861779437</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S27" t="n">
-        <v>22.0</v>
+        <v>70.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="U27" t="s">
         <v>102</v>
@@ -4470,25 +4470,25 @@
         <v>70.0</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.36796748209540686</v>
+        <v>0.5190407147513386</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3677279792553815</v>
+        <v>-0.03494616564204319</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.9362453278052508</v>
+        <v>-0.9362453278056517</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.004064658226659923</v>
+        <v>0.004064658226608804</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC27" t="n">
-        <v>22.0</v>
+        <v>58.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AE27" t="s">
         <v>102</v>
@@ -4500,22 +4500,22 @@
         <v>100.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.05063252198615331</v>
+        <v>-0.03329197200490588</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.5177456557303608</v>
+        <v>-0.5191483199904127</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-0.9362453278079377</v>
+        <v>-0.9362453277828968</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.004064658226317325</v>
+        <v>0.004064658229510268</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM27" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="AN27" t="n">
         <v>0.030000000000001137</v>
@@ -4530,25 +4530,25 @@
         <v>200.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.026594084403329134</v>
+        <v>0.12056086844715674</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.5195349290850254</v>
+        <v>0.5060521399099546</v>
       </c>
       <c r="AT27" t="n">
-        <v>-0.9362453278018817</v>
+        <v>-0.936245327798929</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.004064658227089513</v>
+        <v>0.004064658227466016</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW27" t="n">
-        <v>52.0</v>
+        <v>34.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="AY27" t="s">
         <v>102</v>
@@ -4565,25 +4565,25 @@
         <v>20.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.04444260726698417</v>
+        <v>-0.2791291090022068</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0405614722559113</v>
+        <v>-1.0034057212318714</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.785751334652127</v>
+        <v>-0.7857513343284074</v>
       </c>
       <c r="G28" t="n">
-        <v>0.045902490603344885</v>
+        <v>0.04590249074205787</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I28" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="K28" t="s">
         <v>102</v>
@@ -4595,25 +4595,25 @@
         <v>40.0</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.20869808470859344</v>
+        <v>-0.4855166311544679</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.4765160037986825</v>
+        <v>-0.18680908796160278</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.9362453277024304</v>
+        <v>-0.936245327806772</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.004064658239770488</v>
+        <v>0.004064658226465952</v>
       </c>
       <c r="R28" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S28" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U28" t="s">
         <v>102</v>
@@ -4625,25 +4625,25 @@
         <v>70.0</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.2886588130618974</v>
+        <v>-0.5191344771039309</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.43278187574744625</v>
+        <v>0.03351439079192797</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.936245327807085</v>
+        <v>-0.9362453278027273</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.004064658226426046</v>
+        <v>0.004064658226981698</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC28" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE28" t="s">
         <v>102</v>
@@ -4655,25 +4655,25 @@
         <v>100.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.4106298059889934</v>
+        <v>-0.3110701609534262</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.3193861550263004</v>
+        <v>-0.41696434491488155</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.9362453278074451</v>
+        <v>-0.9362453278047792</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.0040646582263801365</v>
+        <v>0.00406465822672006</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM28" t="n">
-        <v>22.0</v>
+        <v>65.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AO28" t="s">
         <v>102</v>
@@ -4685,25 +4685,25 @@
         <v>200.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>-0.37807837808901257</v>
+        <v>-0.1631720250712597</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.35732492043489755</v>
+        <v>0.4939625128190215</v>
       </c>
       <c r="AT28" t="n">
-        <v>-0.9362453278074037</v>
+        <v>-0.9362453278072002</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.004064658226385417</v>
+        <v>0.004064658226411366</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW28" t="n">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY28" t="s">
         <v>102</v>
@@ -4720,25 +4720,25 @@
         <v>20.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.26399503700909877</v>
+        <v>-0.844049714055817</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.0075050208636191</v>
+        <v>0.6101782840551505</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7857513328456609</v>
+        <v>-0.7857513344413605</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04590249137741078</v>
+        <v>0.045902490693657774</v>
       </c>
       <c r="H29" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I29" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K29" t="s">
         <v>102</v>
@@ -4750,25 +4750,25 @@
         <v>40.0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.4131304222664562</v>
+        <v>0.20295903735253762</v>
       </c>
       <c r="O29" t="n">
-        <v>0.670317920704389</v>
+        <v>-0.47898817198455</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.61949943577929</v>
+        <v>-0.9362453276579801</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.14478067937227865</v>
+        <v>0.00406465824543832</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S29" t="n">
-        <v>52.0</v>
+        <v>27.0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="U29" t="s">
         <v>102</v>
@@ -4780,25 +4780,25 @@
         <v>70.0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04394535379665945</v>
+        <v>-0.043843414620216556</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.5183559153397506</v>
+        <v>0.5183646880717909</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.9362453278069424</v>
+        <v>-0.9362453278079078</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.004064658226444237</v>
+        <v>0.0040646582263211325</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC29" t="n">
-        <v>41.0</v>
+        <v>62.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE29" t="s">
         <v>102</v>
@@ -4810,25 +4810,25 @@
         <v>100.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.4173765529477612</v>
+        <v>0.13513620476455243</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.3105172005740188</v>
+        <v>-0.5023567192832202</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-0.9362453278075702</v>
+        <v>-0.9362453278071351</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.004064658226364182</v>
+        <v>0.004064658226419661</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM29" t="n">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.02999999999999403</v>
       </c>
       <c r="AO29" t="s">
         <v>102</v>
@@ -4840,25 +4840,25 @@
         <v>200.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>-0.35455057749226343</v>
+        <v>-2.64064457664659E-7</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.38068115236727745</v>
+        <v>3.427857198838042E-5</v>
       </c>
       <c r="AT29" t="n">
-        <v>-0.9362453278079235</v>
+        <v>-0.9999999574029799</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.004064658226319137</v>
+        <v>1.814506124247673E-15</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW29" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.13000000000000256</v>
       </c>
       <c r="AY29" t="s">
         <v>102</v>
@@ -4875,25 +4875,25 @@
         <v>20.0</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.0864184449557936</v>
+        <v>-0.4020439726110706</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06597155607137545</v>
+        <v>0.3301344535451387</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.47778442822921174</v>
+        <v>-0.9362453273349817</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2727091033998913</v>
+        <v>0.004064658286623636</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I30" t="n">
-        <v>69.0</v>
+        <v>54.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K30" t="s">
         <v>102</v>
@@ -4905,25 +4905,25 @@
         <v>40.0</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.4730324524168465</v>
+        <v>0.2452512517688711</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2164773879077677</v>
+        <v>0.4587759049381212</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.9362453276740783</v>
+        <v>-0.936245327791691</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0040646582433856455</v>
+        <v>0.004064658228388927</v>
       </c>
       <c r="R30" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S30" t="n">
-        <v>23.0</v>
+        <v>51.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U30" t="s">
         <v>102</v>
@@ -4935,25 +4935,25 @@
         <v>70.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1639737122586122</v>
+        <v>-0.32101705907646494</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.49369271534697057</v>
+        <v>-0.9908030822082696</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.9362453272145743</v>
+        <v>-0.7857513346511191</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.004064658301976698</v>
+        <v>0.04590249060377675</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC30" t="n">
-        <v>32.0</v>
+        <v>22.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE30" t="s">
         <v>102</v>
@@ -4965,25 +4965,25 @@
         <v>100.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.1850268432360492</v>
+        <v>0.242350901470014</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.4861999833847553</v>
+        <v>-0.46031459437327654</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.9362453277680219</v>
+        <v>-0.9362453277906734</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.004064658231406954</v>
+        <v>0.0040646582285186845</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM30" t="n">
         <v>21.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO30" t="s">
         <v>102</v>
@@ -4995,25 +4995,25 @@
         <v>200.0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.5202144299435416</v>
+        <v>-0.3726031018945791</v>
       </c>
       <c r="AS30" t="n">
-        <v>-0.0011591027264140257</v>
+        <v>-0.36303074695784415</v>
       </c>
       <c r="AT30" t="n">
-        <v>-0.9362453278070475</v>
+        <v>-0.9362453278070672</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.00406465822643083</v>
+        <v>0.004064658226428325</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW30" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.1799999999999784</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY30" t="s">
         <v>102</v>
@@ -5030,19 +5030,19 @@
         <v>20.0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.030834758999333</v>
+        <v>0.3241790657529574</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.1762957728653605</v>
+        <v>-0.4068484738311088</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6194994366459813</v>
+        <v>-0.9362453264923917</v>
       </c>
       <c r="G31" t="n">
-        <v>0.14478067871272562</v>
+        <v>0.004064658394061735</v>
       </c>
       <c r="H31" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I31" t="n">
         <v>26.0</v>
@@ -5060,25 +5060,25 @@
         <v>40.0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3963326693724287</v>
+        <v>0.3565211844900815</v>
       </c>
       <c r="O31" t="n">
-        <v>0.3369654762667277</v>
+        <v>0.37883630964295734</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.9362453277707703</v>
+        <v>-0.9362453278077569</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.004064658231056513</v>
+        <v>0.004064658226340371</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S31" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.0</v>
       </c>
       <c r="U31" t="s">
         <v>102</v>
@@ -5090,25 +5090,25 @@
         <v>70.0</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.5183214395135227</v>
+        <v>0.505005526127514</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.04434202423830391</v>
+        <v>0.12487482275002415</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.9362453277826848</v>
+        <v>-0.936245327807765</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.004064658229537307</v>
+        <v>0.004064658226339338</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC31" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AE31" t="s">
         <v>102</v>
@@ -5120,25 +5120,25 @@
         <v>100.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>-0.5153264848314303</v>
+        <v>0.40877147072492614</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.07115521332539433</v>
+        <v>0.3217602236500828</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-0.9362453278063886</v>
+        <v>-0.9362453278009956</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.004064658226514849</v>
+        <v>0.004064658227202509</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM31" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AO31" t="s">
         <v>102</v>
@@ -5150,25 +5150,25 @@
         <v>200.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>-0.1249656333470371</v>
+        <v>-0.005310777461128313</v>
       </c>
       <c r="AS31" t="n">
-        <v>-0.5049818838161518</v>
+        <v>-0.5201837182872513</v>
       </c>
       <c r="AT31" t="n">
-        <v>-0.936245327768983</v>
+        <v>-0.9362453270488568</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.004064658231284417</v>
+        <v>0.004064658323107234</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW31" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="AY31" t="s">
         <v>102</v>
@@ -5185,25 +5185,25 @@
         <v>20.0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.26195478082689583</v>
+        <v>0.24672619638050472</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4494453610638034</v>
+        <v>-0.45798631393449857</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9362453275644611</v>
+        <v>-0.9362453277732706</v>
       </c>
       <c r="G32" t="n">
-        <v>0.004064658257362863</v>
+        <v>0.004064658230737698</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I32" t="n">
-        <v>62.0</v>
+        <v>49.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K32" t="s">
         <v>102</v>
@@ -5215,25 +5215,25 @@
         <v>40.0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4298383933149416</v>
+        <v>0.9376147405724828</v>
       </c>
       <c r="O32" t="n">
-        <v>0.29301684879670903</v>
+        <v>-0.45344685141783136</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9362453272261193</v>
+        <v>-0.7857513342655594</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.004064658300504604</v>
+        <v>0.04590249076898805</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S32" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U32" t="s">
         <v>102</v>
@@ -5245,25 +5245,25 @@
         <v>70.0</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.39267516484968173</v>
+        <v>2.7137439543445743E-5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.3412218711907477</v>
+        <v>2.605969834827993E-5</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.9362453276921283</v>
+        <v>-0.9999999486863675</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0040646582410841</v>
+        <v>2.6330888756501576E-15</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC32" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE32" t="s">
         <v>102</v>
@@ -5275,25 +5275,25 @@
         <v>100.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.37972498371886726</v>
+        <v>-0.2825048204582769</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.3555766171768161</v>
+        <v>0.4368252984488142</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.9362453277310954</v>
+        <v>-0.9362453277709109</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.004064658236115438</v>
+        <v>0.0040646582310385915</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM32" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AO32" t="s">
         <v>102</v>
@@ -5305,25 +5305,25 @@
         <v>200.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.23551490186528848</v>
+        <v>0.4463136087391308</v>
       </c>
       <c r="AS32" t="n">
-        <v>-0.4638502558814373</v>
+        <v>-0.2672610055024818</v>
       </c>
       <c r="AT32" t="n">
-        <v>-0.9362453278076209</v>
+        <v>-0.9362453278078477</v>
       </c>
       <c r="AU32" t="n">
-        <v>0.004064658226357713</v>
+        <v>0.004064658226328791</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW32" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AY32" t="s">
         <v>102</v>
@@ -5340,25 +5340,25 @@
         <v>20.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0391939647191824</v>
+        <v>-0.8043427065534512</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06955581280823807</v>
+        <v>-0.6616239363966481</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.7857513322956553</v>
+        <v>-0.7857513288722131</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04590249161308672</v>
+        <v>0.04590249308002259</v>
       </c>
       <c r="H33" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I33" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="s">
         <v>102</v>
@@ -5370,25 +5370,25 @@
         <v>40.0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4902582289885845</v>
+        <v>-0.33018288878724966</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.1739996946558831</v>
+        <v>-0.40199605300444075</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.9362453270870605</v>
+        <v>-0.936245327586122</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0040646583182358965</v>
+        <v>0.004064658254600896</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S33" t="n">
-        <v>31.0</v>
+        <v>56.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="U33" t="s">
         <v>102</v>
@@ -5400,25 +5400,25 @@
         <v>70.0</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.22279030143470685</v>
+        <v>0.4877976020511351</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.4700961603133299</v>
+        <v>-0.18077096137556947</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.9362453277184021</v>
+        <v>-0.9362453278025894</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.00406465823773395</v>
+        <v>0.00406465822699928</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC33" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AE33" t="s">
         <v>102</v>
@@ -5430,22 +5430,22 @@
         <v>100.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.14254474473166223</v>
+        <v>-0.506389216814563</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.5003039589751225</v>
+        <v>0.11913403310448588</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.9362453277649071</v>
+        <v>-0.9362453277573409</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.004064658231804126</v>
+        <v>0.004064658232768883</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM33" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="AN33" t="n">
         <v>0.030000000000001137</v>
@@ -5460,25 +5460,25 @@
         <v>200.0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.12996208564357853</v>
+        <v>-0.4670346856358038</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.5037198905853167</v>
+        <v>0.22913453865026165</v>
       </c>
       <c r="AT33" t="n">
-        <v>-0.9362453278039755</v>
+        <v>-0.9362453278067712</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.004064658226822538</v>
+        <v>0.004064658226466066</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW33" t="n">
-        <v>58.0</v>
+        <v>41.0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.21000000000000796</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY33" t="s">
         <v>102</v>
@@ -5495,25 +5495,25 @@
         <v>20.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9978290147617352</v>
+        <v>-0.8573760554039869</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2044279622427911</v>
+        <v>-0.5913255274955308</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6194994353577845</v>
+        <v>-0.7857513328817576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1447806796930448</v>
+        <v>0.04590249136194345</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I34" t="n">
-        <v>49.0</v>
+        <v>32.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.0</v>
       </c>
       <c r="K34" t="s">
         <v>102</v>
@@ -5525,25 +5525,25 @@
         <v>40.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4996678073266538</v>
+        <v>0.6707918810897898</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.14476099744213825</v>
+        <v>-0.7967299482795621</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.9362453277979899</v>
+        <v>-0.7857513346018761</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.004064658227585765</v>
+        <v>0.045902490624877265</v>
       </c>
       <c r="R34" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S34" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U34" t="s">
         <v>102</v>
@@ -5555,25 +5555,25 @@
         <v>70.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4906598448272985</v>
+        <v>-0.4838033816681192</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.1728486056320831</v>
+        <v>0.19120586220071875</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.9362453277999877</v>
+        <v>-0.9362453277653409</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.004064658227331021</v>
+        <v>0.004064658231748817</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC34" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.02999999999999403</v>
       </c>
       <c r="AE34" t="s">
         <v>102</v>
@@ -5585,25 +5585,25 @@
         <v>100.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.2983250719550331</v>
+        <v>-0.27379283251009906</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.9978702593401635</v>
+        <v>0.442335382882271</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-0.7857513346520061</v>
+        <v>-0.9362453277685333</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.04590249060339669</v>
+        <v>0.00406465823134175</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM34" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AO34" t="s">
         <v>102</v>
@@ -5615,25 +5615,25 @@
         <v>200.0</v>
       </c>
       <c r="AR34" t="n">
-        <v>-0.30156740309782615</v>
+        <v>-0.39446391869926184</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.4238883985984058</v>
+        <v>-0.33915033692200813</v>
       </c>
       <c r="AT34" t="n">
-        <v>-0.9362453278078772</v>
+        <v>-0.9362453277999054</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.00406465822632504</v>
+        <v>0.004064658227341511</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW34" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY34" t="s">
         <v>102</v>
@@ -5650,25 +5650,25 @@
         <v>20.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.9490662396295508</v>
+        <v>-0.8812809826116413</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7474260849654777</v>
+        <v>-0.555058305647899</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4777844280998806</v>
+        <v>-0.7857513346025553</v>
       </c>
       <c r="G35" t="n">
-        <v>0.27270910353496874</v>
+        <v>0.04590249062458621</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I35" t="n">
-        <v>63.0</v>
+        <v>57.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="s">
         <v>102</v>
@@ -5680,25 +5680,25 @@
         <v>40.0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.5012132620372156</v>
+        <v>0.505528155439241</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.13930787797504474</v>
+        <v>0.12274639103176314</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.9362453275608018</v>
+        <v>-0.936245327765443</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.004064658257829457</v>
+        <v>0.0040646582317357925</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S35" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U35" t="s">
         <v>102</v>
@@ -5710,25 +5710,25 @@
         <v>70.0</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.12176055499832217</v>
+        <v>0.2888376279999866</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.505763697065214</v>
+        <v>-0.43266762437537387</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.9362453277197722</v>
+        <v>-0.936245327249861</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.004064658237559247</v>
+        <v>0.0040646582974773185</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC35" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.040000000000020464</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="AE35" t="s">
         <v>102</v>
@@ -5740,25 +5740,25 @@
         <v>100.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.5131643388266911</v>
+        <v>0.30987955985095855</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.08535392631091399</v>
+        <v>0.41785156419854214</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.9362453277553007</v>
+        <v>-0.9362453277738232</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.004064658233029035</v>
+        <v>0.004064658230667241</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM35" t="n">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO35" t="s">
         <v>102</v>
@@ -5770,25 +5770,25 @@
         <v>200.0</v>
       </c>
       <c r="AR35" t="n">
-        <v>-0.44818430579392016</v>
+        <v>0.05912666893574539</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.26411183907752916</v>
+        <v>0.5168456436563971</v>
       </c>
       <c r="AT35" t="n">
-        <v>-0.9362453278079397</v>
+        <v>-0.9362453277661773</v>
       </c>
       <c r="AU35" t="n">
-        <v>0.00406465822631707</v>
+        <v>0.0040646582316421626</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW35" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.14000000000001478</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AY35" t="s">
         <v>102</v>
@@ -5805,25 +5805,25 @@
         <v>20.0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.28082112166209544</v>
+        <v>-0.07299925755721184</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.43791528305442906</v>
+        <v>-0.51507282802756</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9362453266538283</v>
+        <v>-0.9362453271212251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0040646583734770545</v>
+        <v>0.0040646583138795956</v>
       </c>
       <c r="H36" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I36" t="n">
-        <v>34.0</v>
+        <v>47.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.0</v>
       </c>
       <c r="K36" t="s">
         <v>102</v>
@@ -5835,25 +5835,25 @@
         <v>40.0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5370973263545269</v>
+        <v>0.5111787496183361</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4689528702634818</v>
+        <v>0.09654737889688</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.619499436471241</v>
+        <v>-0.9362453277835316</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1447806788457032</v>
+        <v>0.004064658229429322</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S36" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U36" t="s">
         <v>102</v>
@@ -5865,25 +5865,25 @@
         <v>70.0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.023085566230555188</v>
+        <v>-0.17122666467656014</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5197010985920308</v>
+        <v>-0.4912279515517761</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.9362453276759796</v>
+        <v>-0.9362453277900088</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.004064658243143217</v>
+        <v>0.004064658228603425</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC36" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE36" t="s">
         <v>102</v>
@@ -5895,25 +5895,25 @@
         <v>100.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.5004881091657023</v>
+        <v>-1.3994491667456275E-5</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.1419016921668363</v>
+        <v>3.3290702797812786E-5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-0.9362453278065608</v>
+        <v>-0.9999999527257707</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.004064658226492893</v>
+        <v>2.2348527567548806E-15</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM36" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO36" t="s">
         <v>102</v>
@@ -5925,25 +5925,25 @@
         <v>200.0</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.18661831769381249</v>
+        <v>0.5191892252013596</v>
       </c>
       <c r="AS36" t="n">
-        <v>-0.485590413469327</v>
+        <v>-0.032659345409840404</v>
       </c>
       <c r="AT36" t="n">
-        <v>-0.9362453278064465</v>
+        <v>-0.9362453278072985</v>
       </c>
       <c r="AU36" t="n">
-        <v>0.004064658226507459</v>
+        <v>0.004064658226398823</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW36" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AY36" t="s">
         <v>102</v>
@@ -5960,25 +5960,25 @@
         <v>20.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5591195852481494</v>
+        <v>0.9828192129068866</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8787093994769899</v>
+        <v>-1.8416141607494787</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7857513346315117</v>
+        <v>-0.47778442793800807</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04590249061217848</v>
+        <v>0.27270910370403345</v>
       </c>
       <c r="H37" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I37" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K37" t="s">
         <v>102</v>
@@ -5990,25 +5990,25 @@
         <v>40.0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.0099205863995154E-5</v>
+        <v>-0.19230088848580928</v>
       </c>
       <c r="O37" t="n">
-        <v>-4.166392086366712E-5</v>
+        <v>0.48336698264642847</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.9999999224300632</v>
+        <v>-0.9362453277793077</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.017095096270974E-15</v>
+        <v>0.004064658229967916</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S37" t="n">
-        <v>67.0</v>
+        <v>43.0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U37" t="s">
         <v>102</v>
@@ -6020,25 +6020,25 @@
         <v>70.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4614344158730183</v>
+        <v>-5.623832007541379E-5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.24021297495871502</v>
+        <v>4.1404899602752844E-5</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.9362453278062234</v>
+        <v>-0.999999823204615</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.004064658226535914</v>
+        <v>3.1256608156762505E-14</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC37" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE37" t="s">
         <v>102</v>
@@ -6050,25 +6050,25 @@
         <v>100.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.47116810061252756</v>
+        <v>-0.4053110268374208</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.2205096272986156</v>
+        <v>0.3261124545526164</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-0.9362453278040397</v>
+        <v>-0.9362453276653129</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.004064658226814355</v>
+        <v>0.00406465824450332</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM37" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.0800000000000125</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO37" t="s">
         <v>102</v>
@@ -6080,25 +6080,25 @@
         <v>200.0</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.28418299271722214</v>
+        <v>-0.34787869671428545</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.4357341003693537</v>
+        <v>-0.3867878359752762</v>
       </c>
       <c r="AT37" t="n">
-        <v>-0.9362453278078692</v>
+        <v>-0.936245327806811</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.004064658226326059</v>
+        <v>0.004064658226460984</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW37" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY37" t="s">
         <v>102</v>
@@ -6115,25 +6115,25 @@
         <v>20.0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.519917323721366</v>
+        <v>0.353442778752904</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.017681563601338813</v>
+        <v>-0.3817086660931818</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.9362453276224325</v>
+        <v>-0.9362453277811922</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004064658249970967</v>
+        <v>0.0040646582297276255</v>
       </c>
       <c r="H38" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I38" t="n">
-        <v>47.0</v>
+        <v>25.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0</v>
       </c>
       <c r="K38" t="s">
         <v>102</v>
@@ -6145,25 +6145,25 @@
         <v>40.0</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.5197597538505212</v>
+        <v>0.5594922529492407</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.021754264150868927</v>
+        <v>-0.8784542642051699</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.9362453277889823</v>
+        <v>-0.7857513288926651</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.004064658228734314</v>
+        <v>0.04590249307125897</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S38" t="n">
-        <v>73.0</v>
+        <v>27.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U38" t="s">
         <v>102</v>
@@ -6175,25 +6175,25 @@
         <v>70.0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.48083712127825556</v>
+        <v>-0.5190438277049153</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.19853899517930404</v>
+        <v>0.034874681377781165</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.9362453276620727</v>
+        <v>-0.9362453277384681</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.004064658244916474</v>
+        <v>0.004064658235175341</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC38" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="AE38" t="s">
         <v>102</v>
@@ -6205,25 +6205,25 @@
         <v>100.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>-0.47608778831307286</v>
+        <v>0.4324524962081687</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.2096810874124099</v>
+        <v>-0.2891528113598223</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-0.9362453277362406</v>
+        <v>-0.9362453278054488</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.004064658235459374</v>
+        <v>0.004064658226634683</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM38" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO38" t="s">
         <v>102</v>
@@ -6235,25 +6235,25 @@
         <v>200.0</v>
       </c>
       <c r="AR38" t="n">
-        <v>0.1403802908732674</v>
+        <v>0.5172334225689047</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5009166727634768</v>
+        <v>-0.05562340709409368</v>
       </c>
       <c r="AT38" t="n">
-        <v>-0.9362453278076959</v>
+        <v>-0.9362453278072449</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.004064658226348158</v>
+        <v>0.00406465822640566</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW38" t="n">
-        <v>45.0</v>
+        <v>29.0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY38" t="s">
         <v>102</v>
@@ -6270,25 +6270,25 @@
         <v>20.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.35869067092454504</v>
+        <v>1.5128233626500829</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3767824240796103</v>
+        <v>0.3970379448318398</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.9362453278062088</v>
+        <v>-0.6194994365017998</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004064658226537768</v>
+        <v>0.14478067882244786</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I39" t="n">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K39" t="s">
         <v>102</v>
@@ -6300,25 +6300,25 @@
         <v>40.0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.041442532528444</v>
+        <v>0.860532784771992</v>
       </c>
       <c r="O39" t="n">
-        <v>0.011434356531104065</v>
+        <v>-0.5867260456031926</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.7857513340181621</v>
+        <v>-0.7857513317674207</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04590249087499714</v>
+        <v>0.04590249183943382</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S39" t="n">
-        <v>43.0</v>
+        <v>19.0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U39" t="s">
         <v>102</v>
@@ -6330,22 +6330,22 @@
         <v>70.0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.44116589207929957</v>
+        <v>-0.037428139953786285</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2756758006195242</v>
+        <v>-0.5188676667285226</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.9362453278057635</v>
+        <v>-0.9362453278052423</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.004064658226594549</v>
+        <v>0.004064658226661013</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC39" t="n">
-        <v>34.0</v>
+        <v>42.0</v>
       </c>
       <c r="AD39" t="n">
         <v>0.030000000000001137</v>
@@ -6360,25 +6360,25 @@
         <v>100.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.2834282757524292</v>
+        <v>-0.5030022341825078</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.4362273901318395</v>
+        <v>0.13271091574176866</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.9362453277178672</v>
+        <v>-0.9362453277882452</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.004064658237802156</v>
+        <v>0.004064658228828299</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM39" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="AO39" t="s">
         <v>102</v>
@@ -6390,25 +6390,25 @@
         <v>200.0</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.2383050959542816</v>
+        <v>0.16190059591552822</v>
       </c>
       <c r="AS39" t="n">
-        <v>-0.4624230070584007</v>
+        <v>0.49438083805588545</v>
       </c>
       <c r="AT39" t="n">
-        <v>-0.9362453278074242</v>
+        <v>-0.9362453278079375</v>
       </c>
       <c r="AU39" t="n">
-        <v>0.004064658226382798</v>
+        <v>0.004064658226317353</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW39" t="n">
         <v>23.0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY39" t="s">
         <v>102</v>
@@ -6425,25 +6425,25 @@
         <v>20.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7920089924829784</v>
+        <v>0.8798321815118226</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6763546384281818</v>
+        <v>-0.5573554544238796</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7857513340868241</v>
+        <v>-0.7857513343641054</v>
       </c>
       <c r="G40" t="n">
-        <v>0.045902490845575676</v>
+        <v>0.04590249072676137</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I40" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.0</v>
       </c>
       <c r="K40" t="s">
         <v>102</v>
@@ -6455,25 +6455,25 @@
         <v>40.0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.0994797915101815</v>
+        <v>-0.2830734478892034</v>
       </c>
       <c r="O40" t="n">
-        <v>1.1123990067811946</v>
+        <v>-0.43645731114294106</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.6194994367559538</v>
+        <v>-0.9362453277522245</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.14478067862903643</v>
+        <v>0.00406465823342128</v>
       </c>
       <c r="R40" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S40" t="n">
-        <v>38.0</v>
+        <v>69.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="U40" t="s">
         <v>102</v>
@@ -6485,25 +6485,25 @@
         <v>70.0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.5113606423158907</v>
+        <v>-0.5198084455139941</v>
       </c>
       <c r="Y40" t="n">
-        <v>-0.09557175942193741</v>
+        <v>0.020589387152313374</v>
       </c>
       <c r="Z40" t="n">
-        <v>-0.9362453277981182</v>
+        <v>-0.9362453277996269</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0040646582275694005</v>
+        <v>0.004064658227377029</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC40" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE40" t="s">
         <v>102</v>
@@ -6515,25 +6515,25 @@
         <v>100.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.3563489683678333</v>
+        <v>0.2855146006703171</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.3789980146116056</v>
+        <v>0.43486486003607316</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-0.9362453278072798</v>
+        <v>-0.9362453277057686</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.004064658226401215</v>
+        <v>0.0040646582393448335</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM40" t="n">
-        <v>23.0</v>
+        <v>36.0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="AO40" t="s">
         <v>102</v>
@@ -6545,25 +6545,25 @@
         <v>200.0</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.4879053342656869</v>
+        <v>-0.13336353637220852</v>
       </c>
       <c r="AS40" t="n">
-        <v>-0.18047830691365369</v>
+        <v>-0.5028303505129722</v>
       </c>
       <c r="AT40" t="n">
-        <v>-0.9362453278067722</v>
+        <v>-0.9362453278079066</v>
       </c>
       <c r="AU40" t="n">
-        <v>0.0040646582264659385</v>
+        <v>0.004064658226321289</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW40" t="n">
-        <v>44.0</v>
+        <v>24.0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.12999999999999545</v>
+        <v>0.07000000000000739</v>
       </c>
       <c r="AY40" t="s">
         <v>102</v>
@@ -6580,25 +6580,25 @@
         <v>20.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.021526269650092234</v>
+        <v>-0.33296017679484574</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5197731575865345</v>
+        <v>-0.39969223199873305</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.936245327469294</v>
+        <v>-0.9362453258686496</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004064658269497557</v>
+        <v>0.004064658473594678</v>
       </c>
       <c r="H41" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I41" t="n">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K41" t="s">
         <v>102</v>
@@ -6610,25 +6610,25 @@
         <v>40.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.09335694848416265</v>
+        <v>-0.9916054942696744</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5117751638070215</v>
+        <v>0.31853079850940347</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.9362453269898289</v>
+        <v>-0.7857513346521197</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.004064658330633843</v>
+        <v>0.04590249060334802</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S41" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.0</v>
       </c>
       <c r="U41" t="s">
         <v>102</v>
@@ -6640,25 +6640,25 @@
         <v>70.0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.14967965601887886</v>
+        <v>-0.47871063959135285</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4982215582502103</v>
+        <v>0.2036179332140293</v>
       </c>
       <c r="Z41" t="n">
-        <v>-0.9362453271756158</v>
+        <v>-0.9362453278076961</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.004064658306944271</v>
+        <v>0.004064658226348129</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC41" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE41" t="s">
         <v>102</v>
@@ -6670,25 +6670,25 @@
         <v>100.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.05105218218894847</v>
+        <v>0.2230278819739425</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.5177085564903753</v>
+        <v>-0.4699828708127762</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-0.9362453272429009</v>
+        <v>-0.9362453277695326</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.004064658298364796</v>
+        <v>0.004064658231214329</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM41" t="n">
-        <v>30.0</v>
+        <v>63.0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AO41" t="s">
         <v>102</v>
@@ -6700,25 +6700,25 @@
         <v>200.0</v>
       </c>
       <c r="AR41" t="n">
-        <v>-0.459259205545193</v>
+        <v>-0.4436467949065437</v>
       </c>
       <c r="AS41" t="n">
-        <v>-0.24434594233115187</v>
+        <v>-0.27166448616719596</v>
       </c>
       <c r="AT41" t="n">
-        <v>-0.9362453278056532</v>
+        <v>-0.9362453278071791</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.00406465822660862</v>
+        <v>0.0040646582264140555</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW41" t="n">
-        <v>86.0</v>
+        <v>23.0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.23999999999998067</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AY41" t="s">
         <v>102</v>
@@ -6735,25 +6735,25 @@
         <v>20.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3704017524239237</v>
+        <v>-0.4133491391289129</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3652771120571602</v>
+        <v>0.31587049602925776</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.9362453277966982</v>
+        <v>-0.9362453260677208</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0040646582277504605</v>
+        <v>0.004064658448211239</v>
       </c>
       <c r="H42" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I42" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.0</v>
       </c>
       <c r="K42" t="s">
         <v>102</v>
@@ -6765,25 +6765,25 @@
         <v>40.0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.26861484969950133</v>
+        <v>0.3395063633979758</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.44551013956921776</v>
+        <v>-0.3941552965074911</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.9362453252738336</v>
+        <v>-0.9362453277582763</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004064658549439276</v>
+        <v>0.004064658232649615</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S42" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.0</v>
       </c>
       <c r="U42" t="s">
         <v>102</v>
@@ -6795,25 +6795,25 @@
         <v>70.0</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.3122445374029806</v>
+        <v>0.08240337530089188</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.41608587720453677</v>
+        <v>-0.5136481179156863</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.9362453278074956</v>
+        <v>-0.936245327800796</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0040646582263736955</v>
+        <v>0.004064658227227963</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC42" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE42" t="s">
         <v>102</v>
@@ -6825,25 +6825,25 @@
         <v>100.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.4243208732386335</v>
+        <v>0.48343232341978476</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.3009599971063707</v>
+        <v>-0.19213951207965083</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.9362453277828134</v>
+        <v>-0.9362453278069741</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.004064658229520899</v>
+        <v>0.004064658226440188</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM42" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="AO42" t="s">
         <v>102</v>
@@ -6855,25 +6855,25 @@
         <v>200.0</v>
       </c>
       <c r="AR42" t="n">
-        <v>-0.4176558649352176</v>
+        <v>-1.770463734406898E-5</v>
       </c>
       <c r="AS42" t="n">
-        <v>-0.3101406157005815</v>
+        <v>7.426855368636801E-6</v>
       </c>
       <c r="AT42" t="n">
-        <v>-0.936245327796488</v>
+        <v>-0.9999999866378018</v>
       </c>
       <c r="AU42" t="n">
-        <v>0.004064658227777272</v>
+        <v>1.7854834171892877E-16</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW42" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.13999999999998636</v>
+        <v>0.13000000000000966</v>
       </c>
       <c r="AY42" t="s">
         <v>102</v>
@@ -6890,25 +6890,25 @@
         <v>20.0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.0408696476213788</v>
+        <v>-0.09783352912976634</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.03651406834488419</v>
+        <v>-1.0369043424676796</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7857513346519983</v>
+        <v>-0.7857513346441434</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04590249060340002</v>
+        <v>0.045902490606765836</v>
       </c>
       <c r="H43" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I43" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K43" t="s">
         <v>102</v>
@@ -6920,25 +6920,25 @@
         <v>40.0</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.31669257884315277</v>
+        <v>0.298015327865052</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4127088914151373</v>
+        <v>0.4263953983784251</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.9362453277457378</v>
+        <v>-0.9362453276895931</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004064658234248395</v>
+        <v>0.004064658241407362</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S43" t="n">
-        <v>49.0</v>
+        <v>32.0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U43" t="s">
         <v>102</v>
@@ -6950,25 +6950,25 @@
         <v>70.0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.0708575467191918E-5</v>
+        <v>-0.12618677756386473</v>
       </c>
       <c r="Y43" t="n">
-        <v>-2.1311796044684597E-5</v>
+        <v>0.5046790163101283</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.9999999793785991</v>
+        <v>-0.9362453278064888</v>
       </c>
       <c r="AA43" t="n">
-        <v>4.252421759109814E-16</v>
+        <v>0.004064658226502066</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC43" t="n">
-        <v>28.0</v>
+        <v>69.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AE43" t="s">
         <v>102</v>
@@ -6980,25 +6980,25 @@
         <v>100.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.2244003712529114</v>
+        <v>0.1989328880893468</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.4693221046654064</v>
+        <v>-0.48067852573537956</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.9362453268729801</v>
+        <v>-0.9362453276934978</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.00406465834553315</v>
+        <v>0.004064658240909482</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM43" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.010000000000019327</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AO43" t="s">
         <v>102</v>
@@ -7010,25 +7010,25 @@
         <v>200.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>-0.5186666564182613</v>
+        <v>0.49828409274504903</v>
       </c>
       <c r="AS43" t="n">
-        <v>-0.040118659274755955</v>
+        <v>-0.14945600828105465</v>
       </c>
       <c r="AT43" t="n">
-        <v>-0.9362453278034276</v>
+        <v>-0.9362453278076752</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.0040646582268923995</v>
+        <v>0.00406465822635079</v>
       </c>
       <c r="AV43" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW43" t="n">
-        <v>29.0</v>
+        <v>66.0</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.1699999999999875</v>
+        <v>0.25</v>
       </c>
       <c r="AY43" t="s">
         <v>102</v>
@@ -7045,25 +7045,25 @@
         <v>20.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2632674912536797</v>
+        <v>0.35063272330073497</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4486816535152483</v>
+        <v>-0.3842946070535155</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.9362453277893465</v>
+        <v>-0.936245327744423</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004064658228687868</v>
+        <v>0.004064658234416035</v>
       </c>
       <c r="H44" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I44" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K44" t="s">
         <v>102</v>
@@ -7075,25 +7075,25 @@
         <v>40.0</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.0210432551818196</v>
+        <v>-0.13225981500548725</v>
       </c>
       <c r="O44" t="n">
-        <v>0.20547512092991244</v>
+        <v>0.5031240282888492</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.7857513343991107</v>
+        <v>-0.9362453276537208</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04590249071176168</v>
+        <v>0.004064658245981415</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S44" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U44" t="s">
         <v>102</v>
@@ -7105,25 +7105,25 @@
         <v>70.0</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.20700267835850175</v>
+        <v>-0.39941785742712865</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.47725700048983133</v>
+        <v>0.33329977252899473</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.936245327807447</v>
+        <v>-0.9362453277845302</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.004064658226379896</v>
+        <v>0.004064658229302</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC44" t="n">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AE44" t="s">
         <v>102</v>
@@ -7135,25 +7135,25 @@
         <v>100.0</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.2278457328742291</v>
+        <v>-0.15083417964987642</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.46766480276557854</v>
+        <v>1.0305281235420596</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-0.9362453278069044</v>
+        <v>-0.7857513345490724</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.004064658226449078</v>
+        <v>0.045902490647503486</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM44" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO44" t="s">
         <v>102</v>
@@ -7165,25 +7165,25 @@
         <v>200.0</v>
       </c>
       <c r="AR44" t="n">
-        <v>-0.31078248934590785</v>
+        <v>0.5159864695364761</v>
       </c>
       <c r="AS44" t="n">
-        <v>-0.41718062598386413</v>
+        <v>-0.06619724314460314</v>
       </c>
       <c r="AT44" t="n">
-        <v>-0.9362453277626304</v>
+        <v>-0.9362453278075206</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.004064658232094431</v>
+        <v>0.0040646582263705105</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW44" t="n">
-        <v>32.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.12000000000000455</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="AY44" t="s">
         <v>102</v>
@@ -7200,25 +7200,25 @@
         <v>20.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9101703931208787</v>
+        <v>-1.0352128452851508</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5062876051570983</v>
+        <v>-0.11437398196522378</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.7857513344281908</v>
+        <v>-0.7857513345523739</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04590249069930095</v>
+        <v>0.04590249064608882</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I45" t="n">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="K45" t="s">
         <v>102</v>
@@ -7230,25 +7230,25 @@
         <v>40.0</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.8886675295298452</v>
+        <v>-0.1561598755837467</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.543152752319769</v>
+        <v>0.49622534129148504</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.7857513346321827</v>
+        <v>-0.9362453277575443</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.045902490611890945</v>
+        <v>0.004064658232742949</v>
       </c>
       <c r="R45" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S45" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="U45" t="s">
         <v>102</v>
@@ -7260,25 +7260,25 @@
         <v>70.0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5143759287733582</v>
+        <v>-0.004691903849532999</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07773844340865647</v>
+        <v>-0.5201951183221928</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.9362453277243041</v>
+        <v>-0.936245327790443</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.004064658236981383</v>
+        <v>0.004064658228548059</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC45" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE45" t="s">
         <v>102</v>
@@ -7290,25 +7290,25 @@
         <v>100.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>-0.5197674811533228</v>
+        <v>0.19653344611804238</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.021597034936712257</v>
+        <v>0.4816646691361186</v>
       </c>
       <c r="AJ45" t="n">
-        <v>-0.9362453278019129</v>
+        <v>-0.9362453276799626</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.004064658227085535</v>
+        <v>0.004064658242635343</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM45" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO45" t="s">
         <v>102</v>
@@ -7320,25 +7320,25 @@
         <v>200.0</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.2755902716418342</v>
+        <v>-0.14384108659766714</v>
       </c>
       <c r="AS45" t="n">
-        <v>-0.44121824309856844</v>
+        <v>-0.49993404625721694</v>
       </c>
       <c r="AT45" t="n">
-        <v>-0.9362453277929482</v>
+        <v>-0.9362453278077355</v>
       </c>
       <c r="AU45" t="n">
-        <v>0.0040646582282286205</v>
+        <v>0.004064658226343104</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW45" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="AY45" t="s">
         <v>102</v>
@@ -7355,25 +7355,25 @@
         <v>20.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9573460899392174</v>
+        <v>0.7394451268825667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.41016975780520787</v>
+        <v>-0.7334572200791604</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7857513342710787</v>
+        <v>-0.7857513345170732</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04590249076662306</v>
+        <v>0.04590249066121505</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I46" t="n">
         <v>39.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.0</v>
       </c>
       <c r="K46" t="s">
         <v>102</v>
@@ -7385,25 +7385,25 @@
         <v>40.0</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.3190067912153045</v>
+        <v>0.013590100251541568</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4109250817671698</v>
+        <v>-0.5200388415351358</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.9362453277992094</v>
+        <v>-0.9362453277847819</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.004064658227430257</v>
+        <v>0.004064658229269907</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S46" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U46" t="s">
         <v>102</v>
@@ -7415,25 +7415,25 @@
         <v>70.0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.7078695461257911</v>
+        <v>-0.13196404174389678</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.3947022778586162</v>
+        <v>0.5032001440979098</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.6194994365058724</v>
+        <v>-0.936245327794062</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.14478067881934867</v>
+        <v>0.004064658228086603</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC46" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="AE46" t="s">
         <v>102</v>
@@ -7445,25 +7445,25 @@
         <v>100.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.37160117573842727</v>
+        <v>-0.33419913263460826</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.36405428916809207</v>
+        <v>0.9864345088322645</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.9362453277575414</v>
+        <v>-0.7857513346453513</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.0040646582327433164</v>
+        <v>0.04590249060624825</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM46" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AO46" t="s">
         <v>102</v>
@@ -7475,25 +7475,25 @@
         <v>200.0</v>
       </c>
       <c r="AR46" t="n">
-        <v>4.957774123735668E-6</v>
+        <v>0.5013060075591256</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5657223259370873E-5</v>
+        <v>-0.13898401213340353</v>
       </c>
       <c r="AT46" t="n">
-        <v>-0.999999990222354</v>
+        <v>-0.9362453278078885</v>
       </c>
       <c r="AU46" t="n">
-        <v>9.560236181299192E-17</v>
+        <v>0.004064658226323596</v>
       </c>
       <c r="AV46" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW46" t="n">
-        <v>43.0</v>
+        <v>32.0</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.17000000000001592</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AY46" t="s">
         <v>102</v>
@@ -7510,22 +7510,22 @@
         <v>20.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5341551644160557</v>
+        <v>-0.9689907225285724</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8941053851593773</v>
+        <v>0.3818428272408625</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7857513345916725</v>
+        <v>-0.785751334556312</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04590249062924949</v>
+        <v>0.04590249064440136</v>
       </c>
       <c r="H47" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I47" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="J47" t="n">
         <v>0.0</v>
@@ -7540,25 +7540,25 @@
         <v>40.0</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.2829897789628502</v>
+        <v>0.16035319273734083</v>
       </c>
       <c r="O47" t="n">
-        <v>0.4365119970853287</v>
+        <v>0.49488812649354297</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.936245327716245</v>
+        <v>-0.9362453274918664</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.004064658238008995</v>
+        <v>0.004064658266619367</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S47" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.07999999999998408</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U47" t="s">
         <v>102</v>
@@ -7570,25 +7570,25 @@
         <v>70.0</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.6250003312612101</v>
+        <v>0.3338429369625719</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8331360364693745</v>
+        <v>-0.3989649829599373</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.7857513346244218</v>
+        <v>-0.9362453278078153</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.04590249061521647</v>
+        <v>0.004064658226332925</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC47" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE47" t="s">
         <v>102</v>
@@ -7600,25 +7600,25 @@
         <v>100.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.26583962079892187</v>
+        <v>-0.3990205603858467</v>
       </c>
       <c r="AI47" t="n">
-        <v>-0.44716159946962014</v>
+        <v>-0.3337782289041855</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-0.9362453278079177</v>
+        <v>-0.9362453277709957</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.004064658226319873</v>
+        <v>0.0040646582310277755</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM47" t="n">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="AO47" t="s">
         <v>102</v>
@@ -7630,25 +7630,25 @@
         <v>200.0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.5177657093355504</v>
+        <v>-0.22498185095465448</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.05042984857427141</v>
+        <v>-0.4690501751926107</v>
       </c>
       <c r="AT47" t="n">
-        <v>-0.9362453278056293</v>
+        <v>-0.936245327793778</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.004064658226611664</v>
+        <v>0.004064658228122815</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW47" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.20999999999997954</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="AY47" t="s">
         <v>102</v>
@@ -7665,25 +7665,25 @@
         <v>20.0</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.0584863396422517</v>
+        <v>0.5147818817066622</v>
       </c>
       <c r="E48" t="n">
-        <v>1.1514818954018735</v>
+        <v>0.07505262193699029</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6194994359207926</v>
+        <v>-0.9362453252399936</v>
       </c>
       <c r="G48" t="n">
-        <v>0.144780679264595</v>
+        <v>0.0040646585537541975</v>
       </c>
       <c r="H48" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I48" t="n">
-        <v>25.0</v>
+        <v>55.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K48" t="s">
         <v>102</v>
@@ -7695,25 +7695,25 @@
         <v>40.0</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.3649998886228172</v>
+        <v>0.16316169092610355</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.3706755367994133</v>
+        <v>0.49396696362892145</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.9362453277737603</v>
+        <v>-0.9362453277841849</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.004064658230675254</v>
+        <v>0.004064658229346026</v>
       </c>
       <c r="R48" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S48" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U48" t="s">
         <v>102</v>
@@ -7725,25 +7725,25 @@
         <v>70.0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.27501911928320616</v>
+        <v>0.11975082821858582</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.44157557309976064</v>
+        <v>-0.5062463352993515</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.936245327805572</v>
+        <v>-0.9362453277478371</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.004064658226618969</v>
+        <v>0.004064658233980712</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC48" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.020000000000003126</v>
       </c>
       <c r="AE48" t="s">
         <v>102</v>
@@ -7755,22 +7755,22 @@
         <v>100.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.38693635782194274</v>
+        <v>0.27329547821302114</v>
       </c>
       <c r="AI48" t="n">
-        <v>-0.34771183974021475</v>
+        <v>-0.44264479366450116</v>
       </c>
       <c r="AJ48" t="n">
-        <v>-0.9362453277791202</v>
+        <v>-0.9362453277965106</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.004064658229991826</v>
+        <v>0.004064658227774384</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM48" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN48" t="n">
         <v>0.030000000000001137</v>
@@ -7785,25 +7785,25 @@
         <v>200.0</v>
       </c>
       <c r="AR48" t="n">
-        <v>-0.22080361835595633</v>
+        <v>-0.37672105167925546</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.4710307748171192</v>
+        <v>-0.35875500550726286</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.9362453278079417</v>
+        <v>-0.9362453278046746</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.004064658226316815</v>
+        <v>0.004064658226733395</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW48" t="n">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.18999999999999773</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AY48" t="s">
         <v>102</v>
@@ -7820,25 +7820,25 @@
         <v>20.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.12503429600638816</v>
+        <v>-0.49884965870155007</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.033974616579133</v>
+        <v>0.1475540827235898</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.785751334412546</v>
+        <v>-0.9362453277741651</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04590249070600471</v>
+        <v>0.00406465823062364</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I49" t="n">
-        <v>43.0</v>
+        <v>58.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>0.02999999999999403</v>
       </c>
       <c r="K49" t="s">
         <v>102</v>
@@ -7850,25 +7850,25 @@
         <v>40.0</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.47273920296453253</v>
+        <v>-0.4289091376826505</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.2171290130814802</v>
+        <v>0.9490946264244357</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.936245327500135</v>
+        <v>-0.785751334650565</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.004064658265565042</v>
+        <v>0.04590249060401418</v>
       </c>
       <c r="R49" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S49" t="n">
-        <v>51.0</v>
+        <v>23.0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U49" t="s">
         <v>102</v>
@@ -7880,25 +7880,25 @@
         <v>70.0</v>
       </c>
       <c r="X49" t="n">
-        <v>0.22134502575293136</v>
+        <v>0.2059878174250626</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.47077666935136614</v>
+        <v>0.4776960399738679</v>
       </c>
       <c r="Z49" t="n">
-        <v>-0.9362453278078088</v>
+        <v>-0.9362453278058266</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.00406465822633376</v>
+        <v>0.004064658226586509</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC49" t="n">
-        <v>62.0</v>
+        <v>39.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.05000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE49" t="s">
         <v>102</v>
@@ -7910,25 +7910,25 @@
         <v>100.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.4848424621928345</v>
+        <v>-0.3785725417347536</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.18855236605378012</v>
+        <v>0.35680117953924745</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-0.9362453278079292</v>
+        <v>-0.9362453278079246</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.0040646582263184</v>
+        <v>0.004064658226318995</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM49" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AO49" t="s">
         <v>102</v>
@@ -7940,25 +7940,25 @@
         <v>200.0</v>
       </c>
       <c r="AR49" t="n">
-        <v>-0.4844306477631416</v>
+        <v>-0.47615855676785546</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.18960617803382424</v>
+        <v>0.2095180142290402</v>
       </c>
       <c r="AT49" t="n">
-        <v>-0.9362453277937763</v>
+        <v>-0.9362453277987468</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.004064658228123028</v>
+        <v>0.004064658227489247</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW49" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.06999999999999318</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="AY49" t="s">
         <v>102</v>
@@ -7975,25 +7975,25 @@
         <v>20.0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.0271713903333652</v>
+        <v>-0.8048808009510084</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1722182293312472</v>
+        <v>-1.3410634325885276</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.7857513345953284</v>
+        <v>-0.6194994367735651</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04590249062768292</v>
+        <v>0.14478067861563418</v>
       </c>
       <c r="H50" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I50" t="n">
-        <v>63.0</v>
+        <v>21.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.009999999999990905</v>
+        <v>0.0</v>
       </c>
       <c r="K50" t="s">
         <v>102</v>
@@ -8005,25 +8005,25 @@
         <v>40.0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2113464532026777</v>
+        <v>-0.504363176562296</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.47535128590210035</v>
+        <v>-0.9112413654057021</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.9362453276899715</v>
+        <v>-0.785751334652299</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.004064658241359116</v>
+        <v>0.045902490603271194</v>
       </c>
       <c r="R50" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S50" t="n">
-        <v>40.0</v>
+        <v>57.0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="U50" t="s">
         <v>102</v>
@@ -8035,25 +8035,25 @@
         <v>70.0</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.010923826592770096</v>
+        <v>-0.8679643096809028</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.5201002709926879</v>
+        <v>-0.5756563124836893</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.9362453277964446</v>
+        <v>-0.7857513346470313</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.004064658227782793</v>
+        <v>0.045902490605528375</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC50" t="n">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.03999999999999204</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AE50" t="s">
         <v>102</v>
@@ -8065,22 +8065,22 @@
         <v>100.0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.11714106351137592</v>
+        <v>-0.5136358928837692</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.5068543589994798</v>
+        <v>0.08247432481677867</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.936245327784897</v>
+        <v>-0.9362453278033468</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.004064658229255227</v>
+        <v>0.0040646582269027055</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM50" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN50" t="n">
         <v>0.030000000000001137</v>
@@ -8095,25 +8095,25 @@
         <v>200.0</v>
       </c>
       <c r="AR50" t="n">
-        <v>0.11917782891399727</v>
+        <v>0.4929549855182826</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.5063801008763337</v>
+        <v>0.16619179796727845</v>
       </c>
       <c r="AT50" t="n">
-        <v>-0.9362453278078042</v>
+        <v>-0.9362453278076044</v>
       </c>
       <c r="AU50" t="n">
-        <v>0.004064658226334341</v>
+        <v>0.004064658226359822</v>
       </c>
       <c r="AV50" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW50" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.060000000000002274</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AY50" t="s">
         <v>102</v>
@@ -8130,25 +8130,25 @@
         <v>20.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3726822966718744</v>
+        <v>-1.0275525554361957</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3629478424160672</v>
+        <v>0.16994252814414892</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9362453277767956</v>
+        <v>-0.7857513346359704</v>
       </c>
       <c r="G51" t="n">
-        <v>0.004064658230288233</v>
+        <v>0.04590249061026796</v>
       </c>
       <c r="H51" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I51" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="K51" t="s">
         <v>102</v>
@@ -8160,25 +8160,25 @@
         <v>40.0</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.5201825679762035</v>
+        <v>0.19019598588729597</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0058411157837909115</v>
+        <v>-0.4842028648444406</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.9362453278066247</v>
+        <v>-0.9362453275796317</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.004064658226484739</v>
+        <v>0.0040646582554284645</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S51" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.020000000000010232</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="U51" t="s">
         <v>102</v>
@@ -8190,25 +8190,25 @@
         <v>70.0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.519467786496554</v>
+        <v>0.48721463312555446</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02788356047625636</v>
+        <v>0.1823352596736428</v>
       </c>
       <c r="Z51" t="n">
-        <v>-0.9362453278078741</v>
+        <v>-0.9362453278079315</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.004064658226325436</v>
+        <v>0.0040646582263181175</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC51" t="n">
-        <v>62.0</v>
+        <v>24.0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.04999999999998295</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="AE51" t="s">
         <v>102</v>
@@ -8220,25 +8220,25 @@
         <v>100.0</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.2271709111550939</v>
+        <v>0.11637711791931969</v>
       </c>
       <c r="AI51" t="n">
-        <v>-0.46799483383166673</v>
+        <v>0.507030939680776</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-0.936245327731739</v>
+        <v>-0.9362453278064209</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.004064658236033373</v>
+        <v>0.004064658226510729</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM51" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.030000000000001137</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="AO51" t="s">
         <v>102</v>
@@ -8250,25 +8250,25 @@
         <v>200.0</v>
       </c>
       <c r="AR51" t="n">
-        <v>-0.4008128065293617</v>
+        <v>0.2976399803045748</v>
       </c>
       <c r="AS51" t="n">
-        <v>-0.3316219154845403</v>
+        <v>0.42665520338129265</v>
       </c>
       <c r="AT51" t="n">
-        <v>-0.9362453278063276</v>
+        <v>-0.9362453278079399</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.004064658226522621</v>
+        <v>0.004064658226317042</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW51" t="n">
-        <v>48.0</v>
+        <v>63.0</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.17000000000001592</v>
+        <v>0.160000000000025</v>
       </c>
       <c r="AY51" t="s">
         <v>102</v>
@@ -8285,25 +8285,25 @@
         <v>20.0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.11949689391465926</v>
+        <v>-0.2503095220229778</v>
       </c>
       <c r="E52" t="n">
-        <v>0.14319074635780246</v>
+        <v>-0.1763863393679236</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.7639821600523498</v>
+        <v>-0.7965243440797991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07378157789356349</v>
+        <v>0.0636078949626635</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13581634177773508</v>
+        <v>0.15052815998841365</v>
       </c>
       <c r="I52" t="n">
-        <v>41.04</v>
+        <v>42.24</v>
       </c>
       <c r="J52" t="n">
-        <v>0.010799999999998136</v>
+        <v>0.010599999999999454</v>
       </c>
       <c r="K52" t="s">
         <v>102</v>
@@ -8315,25 +8315,25 @@
         <v>40.0</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.010397900908621329</v>
+        <v>0.0446605239657579</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04295855729038641</v>
+        <v>-0.0031689563581591175</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.8849472933108156</v>
+        <v>-0.8844470535815837</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.022304819834590116</v>
+        <v>0.020571135597453636</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09619121325904757</v>
+        <v>0.08582523873282964</v>
       </c>
       <c r="S52" t="n">
-        <v>40.16</v>
+        <v>37.38</v>
       </c>
       <c r="T52" t="n">
-        <v>0.019200000000000158</v>
+        <v>0.014599999999999369</v>
       </c>
       <c r="U52" t="s">
         <v>102</v>
@@ -8345,25 +8345,25 @@
         <v>70.0</v>
       </c>
       <c r="X52" t="n">
-        <v>0.011531903237913359</v>
+        <v>-0.027543300257815494</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.03541978389758252</v>
+        <v>0.005963237582247973</v>
       </c>
       <c r="Z52" t="n">
-        <v>-0.9277159291764564</v>
+        <v>-0.9177263510549409</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.008308612446978609</v>
+        <v>0.00975936843675343</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.05609417693373348</v>
+        <v>0.05523987695624826</v>
       </c>
       <c r="AC52" t="n">
-        <v>39.0</v>
+        <v>35.88</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.03300000000000068</v>
+        <v>0.031399999999999866</v>
       </c>
       <c r="AE52" t="s">
         <v>102</v>
@@ -8375,25 +8375,25 @@
         <v>100.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.038525843053442775</v>
+        <v>-0.0013303825928988084</v>
       </c>
       <c r="AI52" t="n">
-        <v>-0.020014002131429273</v>
+        <v>0.01252090016666907</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-0.9297658741340813</v>
+        <v>-0.93359115188267</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.0064123418466251764</v>
+        <v>0.006168462354453858</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.038854902909118194</v>
+        <v>0.04235813352471028</v>
       </c>
       <c r="AM52" t="n">
-        <v>34.58</v>
+        <v>31.66</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.05199999999999932</v>
+        <v>0.033800000000000094</v>
       </c>
       <c r="AO52" t="s">
         <v>102</v>
@@ -8405,25 +8405,25 @@
         <v>200.0</v>
       </c>
       <c r="AR52" t="n">
-        <v>-0.0640508233113636</v>
+        <v>-0.048219976174124865</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.04646955817595314</v>
+        <v>-0.0499739180099125</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.9400706036940706</v>
+        <v>-0.941345699488123</v>
       </c>
       <c r="AU52" t="n">
-        <v>0.0038207787336187586</v>
+        <v>0.003739485570970672</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.015294596619081603</v>
+        <v>0.017471802426589172</v>
       </c>
       <c r="AW52" t="n">
-        <v>36.72</v>
+        <v>34.84</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.12839999999999974</v>
+        <v>0.12240000000000023</v>
       </c>
       <c r="AY52" t="s">
         <v>102</v>
